--- a/InternalData/data/Customer-country_data_5-5.xlsx
+++ b/InternalData/data/Customer-country_data_5-5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongenah\Desktop\HCL Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZERO/Documents/Github/PredictiveAnalysis/InternalData/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'customer-country'!$A$10:$P$740</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -218,7 +223,7 @@
     <numFmt numFmtId="166" formatCode="&quot;_x000a_                &quot;#,##0.0000000;&quot;_x000a_                &quot;\-#,##0.0000000"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,29 +294,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13886,7 +13891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="5" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:G61" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
@@ -14446,18 +14451,18 @@
       <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>58</v>
       </c>
@@ -14470,7 +14475,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>49</v>
       </c>
@@ -14493,7 +14498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -14516,7 +14521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="30" t="s">
@@ -14535,7 +14540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
@@ -14554,7 +14559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30" t="s">
@@ -14573,7 +14578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
@@ -14592,7 +14597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30" t="s">
@@ -14611,7 +14616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30" t="s">
@@ -14630,7 +14635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30" t="s">
@@ -14649,7 +14654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30" t="s">
@@ -14668,7 +14673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30" t="s">
@@ -14687,7 +14692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>53</v>
@@ -14706,7 +14711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="29"/>
       <c r="B16" s="23" t="s">
         <v>39</v>
@@ -14727,7 +14732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30" t="s">
@@ -14746,7 +14751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30" t="s">
@@ -14765,7 +14770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
@@ -14784,7 +14789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
@@ -14803,7 +14808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30" t="s">
@@ -14822,7 +14827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30" t="s">
@@ -14841,7 +14846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30" t="s">
@@ -14860,7 +14865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
@@ -14879,7 +14884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
@@ -14898,7 +14903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>54</v>
@@ -14917,7 +14922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="29"/>
       <c r="B27" s="23" t="s">
         <v>40</v>
@@ -14938,7 +14943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30" t="s">
@@ -14957,7 +14962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30" t="s">
@@ -14976,7 +14981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30" t="s">
@@ -14995,7 +15000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="30" t="s">
@@ -15014,7 +15019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30" t="s">
@@ -15033,7 +15038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30" t="s">
@@ -15052,7 +15057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30" t="s">
@@ -15071,7 +15076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30" t="s">
@@ -15090,7 +15095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30" t="s">
@@ -15109,7 +15114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
       <c r="B37" s="23" t="s">
         <v>55</v>
@@ -15128,7 +15133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="23" t="s">
         <v>41</v>
@@ -15149,7 +15154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30" t="s">
@@ -15168,7 +15173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30" t="s">
@@ -15187,7 +15192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="30" t="s">
@@ -15206,7 +15211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30" t="s">
@@ -15225,7 +15230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30" t="s">
@@ -15244,7 +15249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="30" t="s">
@@ -15263,7 +15268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="30" t="s">
@@ -15282,7 +15287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30" t="s">
@@ -15301,7 +15306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30" t="s">
@@ -15320,7 +15325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
       <c r="B48" s="23" t="s">
         <v>59</v>
@@ -15339,7 +15344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
       <c r="B49" s="23" t="s">
         <v>42</v>
@@ -15360,7 +15365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="30" t="s">
@@ -15379,7 +15384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="30" t="s">
@@ -15398,7 +15403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30" t="s">
@@ -15417,7 +15422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30" t="s">
@@ -15436,7 +15441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30" t="s">
@@ -15455,7 +15460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30" t="s">
@@ -15474,7 +15479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30" t="s">
@@ -15493,7 +15498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30" t="s">
@@ -15512,7 +15517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30" t="s">
@@ -15531,7 +15536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
       <c r="B59" s="23" t="s">
         <v>56</v>
@@ -15550,7 +15555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
         <v>57</v>
       </c>
@@ -15569,7 +15574,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>52</v>
       </c>
@@ -15595,24 +15600,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="42" customWidth="1"/>
-    <col min="5" max="16" width="23.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="42"/>
+    <col min="5" max="16" width="23.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15620,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -15628,7 +15632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -15644,7 +15648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -15660,7 +15664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -15668,7 +15672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -15676,7 +15680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21.75" customHeight="1">
+    <row r="10" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
@@ -15726,7 +15730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>58.77000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -15826,7 +15830,7 @@
         <v>58.834000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -15872,7 +15876,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -15922,7 +15926,7 @@
         <v>29.868999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>29.878999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -16018,7 +16022,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -16068,7 +16072,7 @@
         <v>38.63561705528317</v>
       </c>
     </row>
-    <row r="18" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -16118,7 +16122,7 @@
         <v>39.514204290936938</v>
       </c>
     </row>
-    <row r="19" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -16164,7 +16168,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -16214,7 +16218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -16264,7 +16268,7 @@
         <v>60.000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
@@ -16310,7 +16314,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -16360,7 +16364,7 @@
         <v>59.921880055881509</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -16410,7 +16414,7 @@
         <v>59.852641318238121</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -16456,7 +16460,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>44.900695598007616</v>
       </c>
     </row>
-    <row r="27" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>44.935282893460808</v>
       </c>
     </row>
-    <row r="28" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -16602,7 +16606,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -16652,7 +16656,7 @@
         <v>47.00726568705425</v>
       </c>
     </row>
-    <row r="30" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -16702,7 +16706,7 @@
         <v>44.132759114805843</v>
       </c>
     </row>
-    <row r="31" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -16748,7 +16752,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>42.494430168850798</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -16848,7 +16852,7 @@
         <v>46.767997975356671</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -16894,7 +16898,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -16940,7 +16944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -16990,7 +16994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -17036,7 +17040,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" ht="12.75" customHeight="1">
+    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>45.000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="12.75" customHeight="1">
+    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -17136,7 +17140,7 @@
         <v>45.219653905845277</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="12.75" customHeight="1">
+    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -17182,7 +17186,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>22.517653768378469</v>
       </c>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -17282,7 +17286,7 @@
         <v>20.818900931647889</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -17328,7 +17332,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
@@ -17378,7 +17382,7 @@
         <v>47.896000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>40</v>
       </c>
@@ -17428,7 +17432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -17474,7 +17478,7 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
@@ -17518,7 +17522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -17564,7 +17568,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -17614,7 +17618,7 @@
         <v>76.162000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>40</v>
       </c>
@@ -17664,7 +17668,7 @@
         <v>71.058000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
@@ -17710,7 +17714,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16" ht="12.75" customHeight="1">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>40</v>
       </c>
@@ -17758,7 +17762,7 @@
         <v>45.286999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75" customHeight="1">
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
@@ -17808,7 +17812,7 @@
         <v>-410.14600000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75" customHeight="1">
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -17854,7 +17858,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -17904,7 +17908,7 @@
         <v>31.706</v>
       </c>
     </row>
-    <row r="56" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>41</v>
       </c>
@@ -17954,7 +17958,7 @@
         <v>39.158000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>41</v>
       </c>
@@ -18000,7 +18004,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>41</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>34.271000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>41</v>
       </c>
@@ -18100,7 +18104,7 @@
         <v>34.710999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>41</v>
       </c>
@@ -18146,7 +18150,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -18180,7 +18184,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="62" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>41</v>
       </c>
@@ -18230,7 +18234,7 @@
         <v>62.296591141487909</v>
       </c>
     </row>
-    <row r="63" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>41</v>
       </c>
@@ -18280,7 +18284,7 @@
         <v>61.313440183278104</v>
       </c>
     </row>
-    <row r="64" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="64" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>41</v>
       </c>
@@ -18326,7 +18330,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" ht="12.75" customHeight="1">
+    <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>41</v>
       </c>
@@ -18376,7 +18380,7 @@
         <v>46.432480690018203</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="12.75" customHeight="1">
+    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>41</v>
       </c>
@@ -18426,7 +18430,7 @@
         <v>55.75249584399036</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="12.75" customHeight="1">
+    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>41</v>
       </c>
@@ -18472,7 +18476,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="68" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>42</v>
       </c>
@@ -18522,7 +18526,7 @@
         <v>59.014597215792456</v>
       </c>
     </row>
-    <row r="69" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>42</v>
       </c>
@@ -18572,7 +18576,7 @@
         <v>60.960645273009007</v>
       </c>
     </row>
-    <row r="70" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>42</v>
       </c>
@@ -18618,7 +18622,7 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="71" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>42</v>
       </c>
@@ -18668,7 +18672,7 @@
         <v>76.325999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="72" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>42</v>
       </c>
@@ -18718,7 +18722,7 @@
         <v>80.227999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="73" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>42</v>
       </c>
@@ -18764,7 +18768,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="74" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>42</v>
       </c>
@@ -18814,7 +18818,7 @@
         <v>64.964145355646224</v>
       </c>
     </row>
-    <row r="75" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>42</v>
       </c>
@@ -18864,7 +18868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>42</v>
       </c>
@@ -18910,7 +18914,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="77" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>42</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>60.851061599508682</v>
       </c>
     </row>
-    <row r="78" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>42</v>
       </c>
@@ -19010,7 +19014,7 @@
         <v>60.025368616032516</v>
       </c>
     </row>
-    <row r="79" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
@@ -19056,7 +19060,7 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16" ht="12.75" customHeight="1">
+    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>42</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>73.166066031883332</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="12.75" customHeight="1">
+    <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>42</v>
       </c>
@@ -19156,7 +19160,7 @@
         <v>55.288884496898866</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="12.75" customHeight="1">
+    <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>42</v>
       </c>
@@ -19202,7 +19206,7 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>28</v>
       </c>
@@ -19252,7 +19256,7 @@
         <v>72.167389297103696</v>
       </c>
     </row>
-    <row r="84" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="84" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>28</v>
       </c>
@@ -19302,7 +19306,7 @@
         <v>73.312986658688928</v>
       </c>
     </row>
-    <row r="85" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
@@ -19348,7 +19352,7 @@
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
     </row>
-    <row r="86" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="86" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>28</v>
       </c>
@@ -19398,7 +19402,7 @@
         <v>38.758311111277543</v>
       </c>
     </row>
-    <row r="87" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>28</v>
       </c>
@@ -19448,7 +19452,7 @@
         <v>28.95447867612662</v>
       </c>
     </row>
-    <row r="88" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>28</v>
       </c>
@@ -19492,7 +19496,7 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
     </row>
-    <row r="89" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>28</v>
       </c>
@@ -19542,7 +19546,7 @@
         <v>50.274517180661149</v>
       </c>
     </row>
-    <row r="90" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>28</v>
       </c>
@@ -19590,7 +19594,7 @@
         <v>75.792013463130644</v>
       </c>
     </row>
-    <row r="91" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>28</v>
       </c>
@@ -19636,7 +19640,7 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
     </row>
-    <row r="92" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>28</v>
       </c>
@@ -19686,7 +19690,7 @@
         <v>50.354284356640093</v>
       </c>
     </row>
-    <row r="93" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>28</v>
       </c>
@@ -19736,7 +19740,7 @@
         <v>53.373281490656943</v>
       </c>
     </row>
-    <row r="94" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>28</v>
       </c>
@@ -19782,7 +19786,7 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
     </row>
-    <row r="95" spans="1:16" ht="12.75" customHeight="1">
+    <row r="95" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>28</v>
       </c>
@@ -19832,7 +19836,7 @@
         <v>26.798556286961269</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="12.75" customHeight="1">
+    <row r="96" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>28</v>
       </c>
@@ -19882,7 +19886,7 @@
         <v>29.10130694407513</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="12.75" customHeight="1">
+    <row r="97" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -19928,7 +19932,7 @@
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
     </row>
-    <row r="98" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="98" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
@@ -19978,7 +19982,7 @@
         <v>54.222042778734519</v>
       </c>
     </row>
-    <row r="99" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>39</v>
       </c>
@@ -20028,7 +20032,7 @@
         <v>54.210364282655917</v>
       </c>
     </row>
-    <row r="100" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>39</v>
       </c>
@@ -20074,7 +20078,7 @@
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
     </row>
-    <row r="101" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="101" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>39</v>
       </c>
@@ -20124,7 +20128,7 @@
         <v>67.233308258893473</v>
       </c>
     </row>
-    <row r="102" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
@@ -20174,7 +20178,7 @@
         <v>43.342878399719751</v>
       </c>
     </row>
-    <row r="103" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -20220,7 +20224,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>39</v>
       </c>
@@ -20270,7 +20274,7 @@
         <v>63.747791971436271</v>
       </c>
     </row>
-    <row r="105" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>39</v>
       </c>
@@ -20320,7 +20324,7 @@
         <v>74.565331024727072</v>
       </c>
     </row>
-    <row r="106" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>39</v>
       </c>
@@ -20366,7 +20370,7 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>39</v>
       </c>
@@ -20412,7 +20416,7 @@
         <v>63.367369588324003</v>
       </c>
     </row>
-    <row r="108" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>39</v>
       </c>
@@ -20462,7 +20466,7 @@
         <v>60.004104786989686</v>
       </c>
     </row>
-    <row r="109" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>39</v>
       </c>
@@ -20508,7 +20512,7 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" ht="12.75" customHeight="1">
+    <row r="110" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>39</v>
       </c>
@@ -20558,7 +20562,7 @@
         <v>42.292515067611149</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="12.75" customHeight="1">
+    <row r="111" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>39</v>
       </c>
@@ -20608,7 +20612,7 @@
         <v>38.582943661535815</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="12.75" customHeight="1">
+    <row r="112" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -20654,7 +20658,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>40</v>
       </c>
@@ -20704,7 +20708,7 @@
         <v>17.707524059992014</v>
       </c>
     </row>
-    <row r="114" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>40</v>
       </c>
@@ -20754,7 +20758,7 @@
         <v>10.74285260644926</v>
       </c>
     </row>
-    <row r="115" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
         <v>40</v>
       </c>
@@ -20800,7 +20804,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
         <v>40</v>
       </c>
@@ -20850,7 +20854,7 @@
         <v>44.529930166448288</v>
       </c>
     </row>
-    <row r="117" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
         <v>40</v>
       </c>
@@ -20900,7 +20904,7 @@
         <v>51.785298736084236</v>
       </c>
     </row>
-    <row r="118" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>40</v>
       </c>
@@ -20946,7 +20950,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>40</v>
       </c>
@@ -20990,7 +20994,7 @@
         <v>35.417273624274983</v>
       </c>
     </row>
-    <row r="120" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
         <v>40</v>
       </c>
@@ -21036,7 +21040,7 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
     </row>
-    <row r="121" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
         <v>40</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>93.540687639387187</v>
       </c>
     </row>
-    <row r="122" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>40</v>
       </c>
@@ -21134,7 +21138,7 @@
         <v>83.296900026812878</v>
       </c>
     </row>
-    <row r="123" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>40</v>
       </c>
@@ -21180,7 +21184,7 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
     </row>
-    <row r="124" spans="1:16" ht="12.75" customHeight="1">
+    <row r="124" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>40</v>
       </c>
@@ -21228,7 +21232,7 @@
         <v>25.943172751988474</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="12.75" customHeight="1">
+    <row r="125" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
         <v>40</v>
       </c>
@@ -21274,7 +21278,7 @@
       </c>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:16" ht="12.75" customHeight="1">
+    <row r="126" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>40</v>
       </c>
@@ -21320,7 +21324,7 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
     </row>
-    <row r="127" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>41</v>
       </c>
@@ -21370,7 +21374,7 @@
         <v>3.0796164125997731</v>
       </c>
     </row>
-    <row r="128" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="128" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>41</v>
       </c>
@@ -21420,7 +21424,7 @@
         <v>3.1455130662866706</v>
       </c>
     </row>
-    <row r="129" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="129" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>41</v>
       </c>
@@ -21466,7 +21470,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
         <v>41</v>
       </c>
@@ -21516,7 +21520,7 @@
         <v>42.197768404259385</v>
       </c>
     </row>
-    <row r="131" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
         <v>41</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>43.526206507090777</v>
       </c>
     </row>
-    <row r="132" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
         <v>41</v>
       </c>
@@ -21612,7 +21616,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>41</v>
       </c>
@@ -21646,7 +21650,7 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
         <v>41</v>
       </c>
@@ -21696,7 +21700,7 @@
         <v>90.95525881477954</v>
       </c>
     </row>
-    <row r="135" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
         <v>41</v>
       </c>
@@ -21746,7 +21750,7 @@
         <v>74.278864124021752</v>
       </c>
     </row>
-    <row r="136" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="136" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>41</v>
       </c>
@@ -21792,7 +21796,7 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:16" ht="12.75" customHeight="1">
+    <row r="137" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
         <v>41</v>
       </c>
@@ -21842,7 +21846,7 @@
         <v>31.681350622987058</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="12.75" customHeight="1">
+    <row r="138" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>41</v>
       </c>
@@ -21892,7 +21896,7 @@
         <v>35.715275829092185</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75" customHeight="1">
+    <row r="139" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
         <v>41</v>
       </c>
@@ -21938,7 +21942,7 @@
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
     </row>
-    <row r="140" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="140" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
         <v>42</v>
       </c>
@@ -21988,7 +21992,7 @@
         <v>59.707291324893724</v>
       </c>
     </row>
-    <row r="141" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
         <v>42</v>
       </c>
@@ -22038,7 +22042,7 @@
         <v>56.151308579841434</v>
       </c>
     </row>
-    <row r="142" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
         <v>42</v>
       </c>
@@ -22084,7 +22088,7 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
         <v>42</v>
       </c>
@@ -22134,7 +22138,7 @@
         <v>66.242314744681337</v>
       </c>
     </row>
-    <row r="144" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="144" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
         <v>42</v>
       </c>
@@ -22184,7 +22188,7 @@
         <v>71.046393938057292</v>
       </c>
     </row>
-    <row r="145" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>42</v>
       </c>
@@ -22230,7 +22234,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>42</v>
       </c>
@@ -22280,7 +22284,7 @@
         <v>53.42939558818928</v>
       </c>
     </row>
-    <row r="147" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>42</v>
       </c>
@@ -22330,7 +22334,7 @@
         <v>72.918723393052986</v>
       </c>
     </row>
-    <row r="148" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
         <v>42</v>
       </c>
@@ -22376,7 +22380,7 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
         <v>42</v>
       </c>
@@ -22426,7 +22430,7 @@
         <v>69.923252772983304</v>
       </c>
     </row>
-    <row r="150" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
         <v>42</v>
       </c>
@@ -22476,7 +22480,7 @@
         <v>96.927669743408487</v>
       </c>
     </row>
-    <row r="151" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
         <v>42</v>
       </c>
@@ -22522,7 +22526,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:16" ht="12.75" customHeight="1">
+    <row r="152" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
         <v>42</v>
       </c>
@@ -22572,7 +22576,7 @@
         <v>32.858785709893304</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75" customHeight="1">
+    <row r="153" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
         <v>42</v>
       </c>
@@ -22622,7 +22626,7 @@
         <v>36.428831906359832</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75" customHeight="1">
+    <row r="154" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
         <v>42</v>
       </c>
@@ -22668,7 +22672,7 @@
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
     </row>
-    <row r="155" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="155" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>28</v>
       </c>
@@ -22718,7 +22722,7 @@
         <v>364730.52829946415</v>
       </c>
     </row>
-    <row r="156" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="156" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>28</v>
       </c>
@@ -22768,7 +22772,7 @@
         <v>178674.19545602254</v>
       </c>
     </row>
-    <row r="157" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="157" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>28</v>
       </c>
@@ -22818,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="158" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>28</v>
       </c>
@@ -22868,7 +22872,7 @@
         <v>-274439.31819080049</v>
       </c>
     </row>
-    <row r="159" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="159" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
         <v>28</v>
       </c>
@@ -22918,7 +22922,7 @@
         <v>-21900.096514996287</v>
       </c>
     </row>
-    <row r="160" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
         <v>28</v>
       </c>
@@ -22968,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
         <v>28</v>
       </c>
@@ -23018,7 +23022,7 @@
         <v>19677.341496125784</v>
       </c>
     </row>
-    <row r="162" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
         <v>28</v>
       </c>
@@ -23068,7 +23072,7 @@
         <v>-45690.014047093529</v>
       </c>
     </row>
-    <row r="163" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="163" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
         <v>28</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
         <v>28</v>
       </c>
@@ -23168,7 +23172,7 @@
         <v>4727.4604039326596</v>
       </c>
     </row>
-    <row r="165" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
         <v>28</v>
       </c>
@@ -23218,7 +23222,7 @@
         <v>1096.8208044919895</v>
       </c>
     </row>
-    <row r="166" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
         <v>28</v>
       </c>
@@ -23268,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="12.75" customHeight="1">
+    <row r="167" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
         <v>28</v>
       </c>
@@ -23318,7 +23322,7 @@
         <v>223581.43770609092</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="12.75" customHeight="1">
+    <row r="168" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>28</v>
       </c>
@@ -23368,7 +23372,7 @@
         <v>248234.37659994044</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="12.75" customHeight="1">
+    <row r="169" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
         <v>28</v>
       </c>
@@ -23418,7 +23422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
         <v>39</v>
       </c>
@@ -23468,7 +23472,7 @@
         <v>270162.17313029943</v>
       </c>
     </row>
-    <row r="171" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="171" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
         <v>39</v>
       </c>
@@ -23518,7 +23522,7 @@
         <v>137228.36379912953</v>
       </c>
     </row>
-    <row r="172" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="172" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
         <v>39</v>
       </c>
@@ -23568,7 +23572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="173" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>39</v>
       </c>
@@ -23618,7 +23622,7 @@
         <v>253636.11725915782</v>
       </c>
     </row>
-    <row r="174" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="174" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
         <v>39</v>
       </c>
@@ -23668,7 +23672,7 @@
         <v>-146352.08384596941</v>
       </c>
     </row>
-    <row r="175" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="175" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
         <v>39</v>
       </c>
@@ -23718,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="176" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>39</v>
       </c>
@@ -23768,7 +23772,7 @@
         <v>115874.03081083007</v>
       </c>
     </row>
-    <row r="177" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
         <v>39</v>
       </c>
@@ -23818,7 +23822,7 @@
         <v>35511.84689686112</v>
       </c>
     </row>
-    <row r="178" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="178" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
         <v>39</v>
       </c>
@@ -23868,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
         <v>39</v>
       </c>
@@ -23918,7 +23922,7 @@
         <v>1426.71404601531</v>
       </c>
     </row>
-    <row r="180" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
         <v>39</v>
       </c>
@@ -23968,7 +23972,7 @@
         <v>863.62181380004995</v>
       </c>
     </row>
-    <row r="181" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
         <v>39</v>
       </c>
@@ -24018,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="12.75" customHeight="1">
+    <row r="182" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
         <v>39</v>
       </c>
@@ -24068,7 +24072,7 @@
         <v>127117.9070571763</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="12.75" customHeight="1">
+    <row r="183" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
         <v>39</v>
       </c>
@@ -24118,7 +24122,7 @@
         <v>84375.6986890025</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="12.75" customHeight="1">
+    <row r="184" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
         <v>39</v>
       </c>
@@ -24168,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="185" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
         <v>40</v>
       </c>
@@ -24218,7 +24222,7 @@
         <v>44471.790130874368</v>
       </c>
     </row>
-    <row r="186" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="186" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
         <v>40</v>
       </c>
@@ -24268,7 +24272,7 @@
         <v>119457.12364079017</v>
       </c>
     </row>
-    <row r="187" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="187" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
         <v>40</v>
       </c>
@@ -24318,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="188" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
         <v>40</v>
       </c>
@@ -24368,7 +24372,7 @@
         <v>14546.993316294007</v>
       </c>
     </row>
-    <row r="189" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="189" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="5" t="s">
         <v>40</v>
       </c>
@@ -24418,7 +24422,7 @@
         <v>84455.508465176841</v>
       </c>
     </row>
-    <row r="190" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="190" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
         <v>40</v>
       </c>
@@ -24468,7 +24472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="191" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
         <v>40</v>
       </c>
@@ -24518,7 +24522,7 @@
         <v>301.05895669462501</v>
       </c>
     </row>
-    <row r="192" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
         <v>40</v>
       </c>
@@ -24568,7 +24572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="193" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
         <v>40</v>
       </c>
@@ -24618,7 +24622,7 @@
         <v>22107.311702220173</v>
       </c>
     </row>
-    <row r="194" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="194" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
         <v>40</v>
       </c>
@@ -24668,7 +24672,7 @@
         <v>-10728.945302969767</v>
       </c>
     </row>
-    <row r="195" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="195" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
         <v>40</v>
       </c>
@@ -24718,7 +24722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="12.75" customHeight="1">
+    <row r="196" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
         <v>40</v>
       </c>
@@ -24768,7 +24772,7 @@
         <v>15590.030350011544</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="12.75" customHeight="1">
+    <row r="197" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
         <v>40</v>
       </c>
@@ -24818,7 +24822,7 @@
         <v>14016.287735029164</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="12.75" customHeight="1">
+    <row r="198" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
         <v>40</v>
       </c>
@@ -24868,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="199" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
         <v>41</v>
       </c>
@@ -24918,7 +24922,7 @@
         <v>439777.02351437742</v>
       </c>
     </row>
-    <row r="200" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
         <v>41</v>
       </c>
@@ -24968,7 +24972,7 @@
         <v>413965.82742828835</v>
       </c>
     </row>
-    <row r="201" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="201" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="s">
         <v>41</v>
       </c>
@@ -25018,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="202" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
         <v>41</v>
       </c>
@@ -25068,7 +25072,7 @@
         <v>-16539.349479668919</v>
       </c>
     </row>
-    <row r="203" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="203" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
         <v>41</v>
       </c>
@@ -25118,7 +25122,7 @@
         <v>44437.093479444709</v>
       </c>
     </row>
-    <row r="204" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="s">
         <v>41</v>
       </c>
@@ -25168,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="s">
         <v>41</v>
       </c>
@@ -25218,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="s">
         <v>41</v>
       </c>
@@ -25268,7 +25272,7 @@
         <v>116831.19875942353</v>
       </c>
     </row>
-    <row r="207" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="207" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="s">
         <v>41</v>
       </c>
@@ -25318,7 +25322,7 @@
         <v>109403.08866054373</v>
       </c>
     </row>
-    <row r="208" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="208" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="s">
         <v>41</v>
       </c>
@@ -25368,7 +25372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="12.75" customHeight="1">
+    <row r="209" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="5" t="s">
         <v>41</v>
       </c>
@@ -25418,7 +25422,7 @@
         <v>41618.239875356805</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="12.75" customHeight="1">
+    <row r="210" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="5" t="s">
         <v>41</v>
       </c>
@@ -25468,7 +25472,7 @@
         <v>65845.213200057711</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="12.75" customHeight="1">
+    <row r="211" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5" t="s">
         <v>41</v>
       </c>
@@ -25518,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="212" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="5" t="s">
         <v>42</v>
       </c>
@@ -25568,7 +25572,7 @@
         <v>506925.05255205202</v>
       </c>
     </row>
-    <row r="213" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="213" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="s">
         <v>42</v>
       </c>
@@ -25618,7 +25622,7 @@
         <v>-128550.47828709896</v>
       </c>
     </row>
-    <row r="214" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="214" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="5" t="s">
         <v>42</v>
       </c>
@@ -25668,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="215" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="5" t="s">
         <v>42</v>
       </c>
@@ -25718,7 +25722,7 @@
         <v>502017.56759153627</v>
       </c>
     </row>
-    <row r="216" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="216" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="5" t="s">
         <v>42</v>
       </c>
@@ -25768,7 +25772,7 @@
         <v>131718.60914634756</v>
       </c>
     </row>
-    <row r="217" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="5" t="s">
         <v>42</v>
       </c>
@@ -25818,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="218" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="5" t="s">
         <v>42</v>
       </c>
@@ -25868,7 +25872,7 @@
         <v>247808.69459815841</v>
       </c>
     </row>
-    <row r="219" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5" t="s">
         <v>42</v>
       </c>
@@ -25918,7 +25922,7 @@
         <v>65938.252171284781</v>
       </c>
     </row>
-    <row r="220" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="5" t="s">
         <v>42</v>
       </c>
@@ -25968,7 +25972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="221" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5" t="s">
         <v>42</v>
       </c>
@@ -26018,7 +26022,7 @@
         <v>62847.731405061859</v>
       </c>
     </row>
-    <row r="222" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="5" t="s">
         <v>42</v>
       </c>
@@ -26068,7 +26072,7 @@
         <v>95274.600056080992</v>
       </c>
     </row>
-    <row r="223" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="5" t="s">
         <v>42</v>
       </c>
@@ -26118,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="12.75" customHeight="1">
+    <row r="224" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="5" t="s">
         <v>42</v>
       </c>
@@ -26168,7 +26172,7 @@
         <v>356117.70187785546</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="12.75" customHeight="1">
+    <row r="225" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="5" t="s">
         <v>42</v>
       </c>
@@ -26218,7 +26222,7 @@
         <v>268442.7509273988</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="12.75" customHeight="1">
+    <row r="226" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="s">
         <v>42</v>
       </c>
@@ -26268,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="227" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>28</v>
       </c>
@@ -26318,7 +26322,7 @@
         <v>99.667774086378699</v>
       </c>
     </row>
-    <row r="228" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="228" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="9" t="s">
         <v>39</v>
       </c>
@@ -26368,7 +26372,7 @@
         <v>99.682499364998705</v>
       </c>
     </row>
-    <row r="229" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="229" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>40</v>
       </c>
@@ -26418,7 +26422,7 @@
         <v>99.860584673027503</v>
       </c>
     </row>
-    <row r="230" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="230" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="9" t="s">
         <v>41</v>
       </c>
@@ -26468,7 +26472,7 @@
         <v>99.343537176156701</v>
       </c>
     </row>
-    <row r="231" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>42</v>
       </c>
@@ -26518,7 +26522,7 @@
         <v>99.671551689900298</v>
       </c>
     </row>
-    <row r="232" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="9" t="s">
         <v>28</v>
       </c>
@@ -26568,7 +26572,7 @@
         <v>99.903628843119705</v>
       </c>
     </row>
-    <row r="233" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="233" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="9" t="s">
         <v>39</v>
       </c>
@@ -26618,7 +26622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="234" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="9" t="s">
         <v>42</v>
       </c>
@@ -26668,7 +26672,7 @@
         <v>99.9987057864289</v>
       </c>
     </row>
-    <row r="235" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="235" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="9" t="s">
         <v>41</v>
       </c>
@@ -26718,7 +26722,7 @@
         <v>99.9987057864289</v>
       </c>
     </row>
-    <row r="236" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="236" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="9" t="s">
         <v>41</v>
       </c>
@@ -26768,7 +26772,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="237" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="237" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="9" t="s">
         <v>42</v>
       </c>
@@ -26818,7 +26822,7 @@
         <v>98.230417864997506</v>
       </c>
     </row>
-    <row r="238" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="238" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="9" t="s">
         <v>28</v>
       </c>
@@ -26868,7 +26872,7 @@
         <v>99.667774086378699</v>
       </c>
     </row>
-    <row r="239" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="239" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="9" t="s">
         <v>39</v>
       </c>
@@ -26918,7 +26922,7 @@
         <v>99.682499364998705</v>
       </c>
     </row>
-    <row r="240" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="240" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="9" t="s">
         <v>40</v>
       </c>
@@ -26968,7 +26972,7 @@
         <v>99.860584673027503</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="12.75" customHeight="1">
+    <row r="241" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="40" t="s">
         <v>28</v>
       </c>
@@ -27018,7 +27022,7 @@
         <v>99.860584673027503</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="12.75" customHeight="1">
+    <row r="242" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="40" t="s">
         <v>39</v>
       </c>
@@ -27068,7 +27072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="12.75" customHeight="1">
+    <row r="243" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="40" t="s">
         <v>40</v>
       </c>
@@ -27118,7 +27122,7 @@
         <v>99.847646992438797</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="12.75" customHeight="1">
+    <row r="244" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="40" t="s">
         <v>41</v>
       </c>
@@ -27168,7 +27172,7 @@
         <v>98.740938573063701</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="12.75" customHeight="1">
+    <row r="245" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="40" t="s">
         <v>42</v>
       </c>
@@ -27218,7 +27222,7 @@
         <v>96.999580008399803</v>
       </c>
     </row>
-    <row r="246" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="246" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>28</v>
       </c>
@@ -27268,7 +27272,7 @@
         <v>98.159509202454004</v>
       </c>
     </row>
-    <row r="247" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="247" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>39</v>
       </c>
@@ -27318,7 +27322,7 @@
         <v>99.573136027319293</v>
       </c>
     </row>
-    <row r="248" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="248" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>40</v>
       </c>
@@ -27368,7 +27372,7 @@
         <v>99.828326180257505</v>
       </c>
     </row>
-    <row r="249" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="249" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="9" t="s">
         <v>41</v>
       </c>
@@ -27418,7 +27422,7 @@
         <v>99.673932305511201</v>
       </c>
     </row>
-    <row r="250" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="250" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>42</v>
       </c>
@@ -27468,7 +27472,7 @@
         <v>99.493820719086102</v>
       </c>
     </row>
-    <row r="251" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="251" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="9" t="s">
         <v>28</v>
       </c>
@@ -27518,7 +27522,7 @@
         <v>99.667774086378699</v>
       </c>
     </row>
-    <row r="252" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="252" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>39</v>
       </c>
@@ -27568,7 +27572,7 @@
         <v>99.745673345325997</v>
       </c>
     </row>
-    <row r="253" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="253" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>40</v>
       </c>
@@ -27618,7 +27622,7 @@
         <v>99.971431224243503</v>
       </c>
     </row>
-    <row r="254" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="254" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>41</v>
       </c>
@@ -27668,7 +27672,7 @@
         <v>99.796199023173102</v>
       </c>
     </row>
-    <row r="255" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="255" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>42</v>
       </c>
@@ -27718,7 +27722,7 @@
         <v>99.7877276257191</v>
       </c>
     </row>
-    <row r="256" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="256" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>28</v>
       </c>
@@ -27768,7 +27772,7 @@
         <v>99.945526062595505</v>
       </c>
     </row>
-    <row r="257" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="257" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>39</v>
       </c>
@@ -27818,7 +27822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="258" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>42</v>
       </c>
@@ -27868,7 +27872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="259" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="9" t="s">
         <v>40</v>
       </c>
@@ -27918,7 +27922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="260" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>41</v>
       </c>
@@ -27968,7 +27972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="261" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="9" t="s">
         <v>41</v>
       </c>
@@ -28018,7 +28022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="262" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>42</v>
       </c>
@@ -28068,7 +28072,7 @@
         <v>97.063178677196504</v>
       </c>
     </row>
-    <row r="263" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="263" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="9" t="s">
         <v>28</v>
       </c>
@@ -28118,7 +28122,7 @@
         <v>99.667774086378699</v>
       </c>
     </row>
-    <row r="264" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="264" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>39</v>
       </c>
@@ -28168,7 +28172,7 @@
         <v>99.745673345325997</v>
       </c>
     </row>
-    <row r="265" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="265" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>40</v>
       </c>
@@ -28218,7 +28222,7 @@
         <v>99.971431224243503</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="12.75" customHeight="1">
+    <row r="266" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="40" t="s">
         <v>28</v>
       </c>
@@ -28268,7 +28272,7 @@
         <v>99.971431224243503</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="12.75" customHeight="1">
+    <row r="267" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="40" t="s">
         <v>39</v>
       </c>
@@ -28318,7 +28322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="12.75" customHeight="1">
+    <row r="268" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="40" t="s">
         <v>40</v>
       </c>
@@ -28368,7 +28372,7 @@
         <v>99.9562097887964</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="12.75" customHeight="1">
+    <row r="269" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="40" t="s">
         <v>41</v>
       </c>
@@ -28418,7 +28422,7 @@
         <v>99.372283920811199</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="12.75" customHeight="1">
+    <row r="270" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="40" t="s">
         <v>42</v>
       </c>
@@ -28468,7 +28472,7 @@
         <v>99.381907864689595</v>
       </c>
     </row>
-    <row r="271" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="271" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="9" t="s">
         <v>28</v>
       </c>
@@ -28518,7 +28522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="272" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="9" t="s">
         <v>39</v>
       </c>
@@ -28568,7 +28572,7 @@
         <v>99.575049324632005</v>
       </c>
     </row>
-    <row r="273" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="273" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>40</v>
       </c>
@@ -28618,7 +28622,7 @@
         <v>99.825479930192003</v>
       </c>
     </row>
-    <row r="274" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="274" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="9" t="s">
         <v>41</v>
       </c>
@@ -28668,7 +28672,7 @@
         <v>99.607182940516296</v>
       </c>
     </row>
-    <row r="275" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="275" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="9" t="s">
         <v>42</v>
       </c>
@@ -28718,7 +28722,7 @@
         <v>99.423240938166302</v>
       </c>
     </row>
-    <row r="276" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="276" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="9" t="s">
         <v>28</v>
       </c>
@@ -28764,7 +28768,7 @@
       <c r="O276" s="13"/>
       <c r="P276" s="13"/>
     </row>
-    <row r="277" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="277" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="9" t="s">
         <v>39</v>
       </c>
@@ -28810,7 +28814,7 @@
       <c r="O277" s="13"/>
       <c r="P277" s="13"/>
     </row>
-    <row r="278" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="278" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="9" t="s">
         <v>40</v>
       </c>
@@ -28856,7 +28860,7 @@
       <c r="O278" s="13"/>
       <c r="P278" s="13"/>
     </row>
-    <row r="279" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="279" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>41</v>
       </c>
@@ -28902,7 +28906,7 @@
       <c r="O279" s="13"/>
       <c r="P279" s="13"/>
     </row>
-    <row r="280" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="280" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="9" t="s">
         <v>42</v>
       </c>
@@ -28948,7 +28952,7 @@
       <c r="O280" s="13"/>
       <c r="P280" s="13"/>
     </row>
-    <row r="281" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="281" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="9" t="s">
         <v>28</v>
       </c>
@@ -28994,7 +28998,7 @@
       <c r="O281" s="15"/>
       <c r="P281" s="15"/>
     </row>
-    <row r="282" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="282" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="9" t="s">
         <v>39</v>
       </c>
@@ -29040,7 +29044,7 @@
       <c r="O282" s="15"/>
       <c r="P282" s="15"/>
     </row>
-    <row r="283" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="283" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>42</v>
       </c>
@@ -29086,7 +29090,7 @@
       <c r="O283" s="15"/>
       <c r="P283" s="15"/>
     </row>
-    <row r="284" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="284" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="9" t="s">
         <v>40</v>
       </c>
@@ -29132,7 +29136,7 @@
       <c r="O284" s="15"/>
       <c r="P284" s="15"/>
     </row>
-    <row r="285" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="285" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>41</v>
       </c>
@@ -29178,7 +29182,7 @@
       <c r="O285" s="15"/>
       <c r="P285" s="15"/>
     </row>
-    <row r="286" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="286" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>41</v>
       </c>
@@ -29224,7 +29228,7 @@
       <c r="O286" s="13"/>
       <c r="P286" s="13"/>
     </row>
-    <row r="287" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="287" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="9" t="s">
         <v>42</v>
       </c>
@@ -29270,7 +29274,7 @@
       <c r="O287" s="13"/>
       <c r="P287" s="13"/>
     </row>
-    <row r="288" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="288" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>28</v>
       </c>
@@ -29316,7 +29320,7 @@
       <c r="O288" s="13"/>
       <c r="P288" s="13"/>
     </row>
-    <row r="289" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="289" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>39</v>
       </c>
@@ -29362,7 +29366,7 @@
       <c r="O289" s="13"/>
       <c r="P289" s="13"/>
     </row>
-    <row r="290" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="290" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="9" t="s">
         <v>40</v>
       </c>
@@ -29408,7 +29412,7 @@
       <c r="O290" s="13"/>
       <c r="P290" s="13"/>
     </row>
-    <row r="291" spans="1:16" ht="12.75" customHeight="1">
+    <row r="291" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="40" t="s">
         <v>28</v>
       </c>
@@ -29454,7 +29458,7 @@
       <c r="O291" s="47"/>
       <c r="P291" s="47"/>
     </row>
-    <row r="292" spans="1:16" ht="12.75" customHeight="1">
+    <row r="292" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="40" t="s">
         <v>39</v>
       </c>
@@ -29500,7 +29504,7 @@
       <c r="O292" s="47"/>
       <c r="P292" s="47"/>
     </row>
-    <row r="293" spans="1:16" ht="12.75" customHeight="1">
+    <row r="293" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="40" t="s">
         <v>40</v>
       </c>
@@ -29546,7 +29550,7 @@
       <c r="O293" s="47"/>
       <c r="P293" s="47"/>
     </row>
-    <row r="294" spans="1:16" ht="12.75" customHeight="1">
+    <row r="294" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="40" t="s">
         <v>41</v>
       </c>
@@ -29592,7 +29596,7 @@
       <c r="O294" s="47"/>
       <c r="P294" s="47"/>
     </row>
-    <row r="295" spans="1:16" ht="12.75" customHeight="1">
+    <row r="295" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="40" t="s">
         <v>42</v>
       </c>
@@ -29638,7 +29642,7 @@
       <c r="O295" s="47"/>
       <c r="P295" s="47"/>
     </row>
-    <row r="296" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="296" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>28</v>
       </c>
@@ -29684,7 +29688,7 @@
       <c r="O296" s="13"/>
       <c r="P296" s="13"/>
     </row>
-    <row r="297" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="297" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="9" t="s">
         <v>39</v>
       </c>
@@ -29730,7 +29734,7 @@
       <c r="O297" s="13"/>
       <c r="P297" s="13"/>
     </row>
-    <row r="298" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="298" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="9" t="s">
         <v>40</v>
       </c>
@@ -29776,7 +29780,7 @@
       <c r="O298" s="13"/>
       <c r="P298" s="13"/>
     </row>
-    <row r="299" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="299" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="9" t="s">
         <v>41</v>
       </c>
@@ -29822,7 +29826,7 @@
       <c r="O299" s="13"/>
       <c r="P299" s="13"/>
     </row>
-    <row r="300" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="300" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="9" t="s">
         <v>42</v>
       </c>
@@ -29868,7 +29872,7 @@
       <c r="O300" s="13"/>
       <c r="P300" s="13"/>
     </row>
-    <row r="301" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="301" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>28</v>
       </c>
@@ -29918,7 +29922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="302" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="9" t="s">
         <v>39</v>
       </c>
@@ -29968,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="303" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>40</v>
       </c>
@@ -30018,7 +30022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="304" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="9" t="s">
         <v>41</v>
       </c>
@@ -30068,7 +30072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="305" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="9" t="s">
         <v>42</v>
       </c>
@@ -30118,7 +30122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="306" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="9" t="s">
         <v>28</v>
       </c>
@@ -30168,7 +30172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="307" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="9" t="s">
         <v>39</v>
       </c>
@@ -30218,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="308" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="9" t="s">
         <v>42</v>
       </c>
@@ -30268,7 +30272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="309" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="9" t="s">
         <v>41</v>
       </c>
@@ -30318,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="310" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="9" t="s">
         <v>41</v>
       </c>
@@ -30368,7 +30372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="311" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="9" t="s">
         <v>42</v>
       </c>
@@ -30418,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="312" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>28</v>
       </c>
@@ -30468,7 +30472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="313" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="9" t="s">
         <v>39</v>
       </c>
@@ -30518,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="314" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>40</v>
       </c>
@@ -30568,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="12.75" customHeight="1">
+    <row r="315" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="40" t="s">
         <v>28</v>
       </c>
@@ -30618,7 +30622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="12.75" customHeight="1">
+    <row r="316" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="40" t="s">
         <v>39</v>
       </c>
@@ -30668,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="12.75" customHeight="1">
+    <row r="317" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="40" t="s">
         <v>40</v>
       </c>
@@ -30718,7 +30722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="12.75" customHeight="1">
+    <row r="318" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="40" t="s">
         <v>41</v>
       </c>
@@ -30768,7 +30772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="12.75" customHeight="1">
+    <row r="319" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="40" t="s">
         <v>42</v>
       </c>
@@ -30818,7 +30822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="320" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>28</v>
       </c>
@@ -30868,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="321" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="9" t="s">
         <v>39</v>
       </c>
@@ -30918,7 +30922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="322" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="9" t="s">
         <v>40</v>
       </c>
@@ -30968,7 +30972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="323" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="9" t="s">
         <v>41</v>
       </c>
@@ -31018,7 +31022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="324" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>42</v>
       </c>
@@ -31068,7 +31072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>28</v>
       </c>
@@ -31118,7 +31122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="326" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="9" t="s">
         <v>39</v>
       </c>
@@ -31168,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="327" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>40</v>
       </c>
@@ -31218,7 +31222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="328" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="9" t="s">
         <v>41</v>
       </c>
@@ -31268,7 +31272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="329" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="9" t="s">
         <v>42</v>
       </c>
@@ -31318,7 +31322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="330" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>28</v>
       </c>
@@ -31368,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="331" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>39</v>
       </c>
@@ -31418,7 +31422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="332" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="9" t="s">
         <v>42</v>
       </c>
@@ -31468,7 +31472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="333" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="9" t="s">
         <v>40</v>
       </c>
@@ -31518,7 +31522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="334" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="9" t="s">
         <v>41</v>
       </c>
@@ -31568,7 +31572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="335" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="9" t="s">
         <v>41</v>
       </c>
@@ -31618,7 +31622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="336" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="9" t="s">
         <v>42</v>
       </c>
@@ -31668,7 +31672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="337" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="9" t="s">
         <v>28</v>
       </c>
@@ -31718,7 +31722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="338" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="9" t="s">
         <v>39</v>
       </c>
@@ -31768,7 +31772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="339" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="9" t="s">
         <v>40</v>
       </c>
@@ -31818,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="12.75" customHeight="1">
+    <row r="340" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="40" t="s">
         <v>28</v>
       </c>
@@ -31868,7 +31872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="12.75" customHeight="1">
+    <row r="341" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="40" t="s">
         <v>39</v>
       </c>
@@ -31918,7 +31922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="12.75" customHeight="1">
+    <row r="342" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="40" t="s">
         <v>40</v>
       </c>
@@ -31968,7 +31972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="12.75" customHeight="1">
+    <row r="343" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="40" t="s">
         <v>41</v>
       </c>
@@ -32018,7 +32022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="12.75" customHeight="1">
+    <row r="344" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="40" t="s">
         <v>42</v>
       </c>
@@ -32068,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="345" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="9" t="s">
         <v>28</v>
       </c>
@@ -32118,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="346" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>39</v>
       </c>
@@ -32168,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="347" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="9" t="s">
         <v>40</v>
       </c>
@@ -32218,7 +32222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="348" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>41</v>
       </c>
@@ -32268,7 +32272,7 @@
         <v>4.8969211563129299E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="349" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="9" t="s">
         <v>42</v>
       </c>
@@ -32318,7 +32322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="350" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="9" t="s">
         <v>28</v>
       </c>
@@ -32364,7 +32368,7 @@
       <c r="O350" s="12"/>
       <c r="P350" s="12"/>
     </row>
-    <row r="351" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="351" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="9" t="s">
         <v>39</v>
       </c>
@@ -32410,7 +32414,7 @@
       <c r="O351" s="12"/>
       <c r="P351" s="12"/>
     </row>
-    <row r="352" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="352" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>40</v>
       </c>
@@ -32456,7 +32460,7 @@
       <c r="O352" s="12"/>
       <c r="P352" s="12"/>
     </row>
-    <row r="353" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="353" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>41</v>
       </c>
@@ -32502,7 +32506,7 @@
       <c r="O353" s="12"/>
       <c r="P353" s="12"/>
     </row>
-    <row r="354" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="354" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="9" t="s">
         <v>42</v>
       </c>
@@ -32548,7 +32552,7 @@
       <c r="O354" s="12"/>
       <c r="P354" s="12"/>
     </row>
-    <row r="355" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="355" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="9" t="s">
         <v>28</v>
       </c>
@@ -32594,7 +32598,7 @@
       <c r="O355" s="14"/>
       <c r="P355" s="14"/>
     </row>
-    <row r="356" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="356" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="9" t="s">
         <v>39</v>
       </c>
@@ -32640,7 +32644,7 @@
       <c r="O356" s="14"/>
       <c r="P356" s="14"/>
     </row>
-    <row r="357" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="357" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="9" t="s">
         <v>42</v>
       </c>
@@ -32686,7 +32690,7 @@
       <c r="O357" s="14"/>
       <c r="P357" s="14"/>
     </row>
-    <row r="358" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="358" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="9" t="s">
         <v>40</v>
       </c>
@@ -32732,7 +32736,7 @@
       <c r="O358" s="14"/>
       <c r="P358" s="14"/>
     </row>
-    <row r="359" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>41</v>
       </c>
@@ -32778,7 +32782,7 @@
       <c r="O359" s="14"/>
       <c r="P359" s="14"/>
     </row>
-    <row r="360" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>41</v>
       </c>
@@ -32824,7 +32828,7 @@
       <c r="O360" s="14"/>
       <c r="P360" s="14"/>
     </row>
-    <row r="361" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="9" t="s">
         <v>42</v>
       </c>
@@ -32870,7 +32874,7 @@
       <c r="O361" s="12"/>
       <c r="P361" s="12"/>
     </row>
-    <row r="362" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="9" t="s">
         <v>28</v>
       </c>
@@ -32916,7 +32920,7 @@
       <c r="O362" s="12"/>
       <c r="P362" s="12"/>
     </row>
-    <row r="363" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="363" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="9" t="s">
         <v>39</v>
       </c>
@@ -32962,7 +32966,7 @@
       <c r="O363" s="12"/>
       <c r="P363" s="12"/>
     </row>
-    <row r="364" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="364" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="9" t="s">
         <v>40</v>
       </c>
@@ -33008,7 +33012,7 @@
       <c r="O364" s="12"/>
       <c r="P364" s="12"/>
     </row>
-    <row r="365" spans="1:16" ht="12.75" customHeight="1">
+    <row r="365" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="40" t="s">
         <v>28</v>
       </c>
@@ -33054,7 +33058,7 @@
       <c r="O365" s="48"/>
       <c r="P365" s="48"/>
     </row>
-    <row r="366" spans="1:16" ht="12.75" customHeight="1">
+    <row r="366" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="40" t="s">
         <v>39</v>
       </c>
@@ -33100,7 +33104,7 @@
       <c r="O366" s="48"/>
       <c r="P366" s="48"/>
     </row>
-    <row r="367" spans="1:16" ht="12.75" customHeight="1">
+    <row r="367" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="40" t="s">
         <v>40</v>
       </c>
@@ -33146,7 +33150,7 @@
       <c r="O367" s="48"/>
       <c r="P367" s="48"/>
     </row>
-    <row r="368" spans="1:16" ht="12.75" customHeight="1">
+    <row r="368" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="40" t="s">
         <v>41</v>
       </c>
@@ -33192,7 +33196,7 @@
       <c r="O368" s="48"/>
       <c r="P368" s="48"/>
     </row>
-    <row r="369" spans="1:16" ht="12.75" customHeight="1">
+    <row r="369" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="40" t="s">
         <v>42</v>
       </c>
@@ -33238,7 +33242,7 @@
       <c r="O369" s="48"/>
       <c r="P369" s="48"/>
     </row>
-    <row r="370" spans="1:16" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="370" spans="1:16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>28</v>
       </c>
@@ -33284,7 +33288,7 @@
       <c r="O370" s="12"/>
       <c r="P370" s="12"/>
     </row>
-    <row r="371" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="371" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="9" t="s">
         <v>39</v>
       </c>
@@ -33330,7 +33334,7 @@
       <c r="O371" s="12"/>
       <c r="P371" s="12"/>
     </row>
-    <row r="372" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="372" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>40</v>
       </c>
@@ -33376,7 +33380,7 @@
       <c r="O372" s="12"/>
       <c r="P372" s="12"/>
     </row>
-    <row r="373" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="373" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="9" t="s">
         <v>41</v>
       </c>
@@ -33422,7 +33426,7 @@
       <c r="O373" s="12"/>
       <c r="P373" s="12"/>
     </row>
-    <row r="374" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="374" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="9" t="s">
         <v>42</v>
       </c>
@@ -33468,7 +33472,7 @@
       <c r="O374" s="12"/>
       <c r="P374" s="12"/>
     </row>
-    <row r="375" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="375" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="9" t="s">
         <v>28</v>
       </c>
@@ -33518,7 +33522,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="376" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="376" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="9" t="s">
         <v>39</v>
       </c>
@@ -33568,7 +33572,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="377" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="377" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="9" t="s">
         <v>40</v>
       </c>
@@ -33618,7 +33622,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="378" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="378" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="9" t="s">
         <v>41</v>
       </c>
@@ -33668,7 +33672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="379" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="379" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="9" t="s">
         <v>42</v>
       </c>
@@ -33718,7 +33722,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="380" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="380" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="9" t="s">
         <v>28</v>
       </c>
@@ -33768,7 +33772,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="381" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="381" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="9" t="s">
         <v>39</v>
       </c>
@@ -33818,7 +33822,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="382" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="382" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="9" t="s">
         <v>42</v>
       </c>
@@ -33868,7 +33872,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="383" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="383" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="9" t="s">
         <v>41</v>
       </c>
@@ -33918,7 +33922,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="384" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="384" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="9" t="s">
         <v>41</v>
       </c>
@@ -33968,7 +33972,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="385" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="385" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="9" t="s">
         <v>42</v>
       </c>
@@ -34018,7 +34022,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="386" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="386" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="9" t="s">
         <v>28</v>
       </c>
@@ -34068,7 +34072,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="387" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="387" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="9" t="s">
         <v>39</v>
       </c>
@@ -34118,7 +34122,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="388" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="388" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="9" t="s">
         <v>40</v>
       </c>
@@ -34168,7 +34172,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A389" s="40" t="s">
         <v>28</v>
       </c>
@@ -34218,7 +34222,7 @@
         <v>96.094933512876594</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A390" s="40" t="s">
         <v>39</v>
       </c>
@@ -34268,7 +34272,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A391" s="40" t="s">
         <v>40</v>
       </c>
@@ -34318,7 +34322,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A392" s="40" t="s">
         <v>41</v>
       </c>
@@ -34368,7 +34372,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A393" s="40" t="s">
         <v>42</v>
       </c>
@@ -34418,7 +34422,7 @@
         <v>99.472577347010002</v>
       </c>
     </row>
-    <row r="394" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="394" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>28</v>
       </c>
@@ -34468,7 +34472,7 @@
         <v>99.450897571277693</v>
       </c>
     </row>
-    <row r="395" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="395" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>39</v>
       </c>
@@ -34518,7 +34522,7 @@
         <v>99.450897571277693</v>
       </c>
     </row>
-    <row r="396" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="396" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>40</v>
       </c>
@@ -34568,7 +34572,7 @@
         <v>99.450897571277693</v>
       </c>
     </row>
-    <row r="397" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="397" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="9" t="s">
         <v>41</v>
       </c>
@@ -34618,7 +34622,7 @@
         <v>96.149806483173407</v>
       </c>
     </row>
-    <row r="398" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="398" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>42</v>
       </c>
@@ -34668,7 +34672,7 @@
         <v>96.149806483173407</v>
       </c>
     </row>
-    <row r="399" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="399" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>28</v>
       </c>
@@ -34718,7 +34722,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="400" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="400" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>39</v>
       </c>
@@ -34768,7 +34772,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="401" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="401" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="9" t="s">
         <v>40</v>
       </c>
@@ -34818,7 +34822,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="402" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="402" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>41</v>
       </c>
@@ -34868,7 +34872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="403" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="403" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>42</v>
       </c>
@@ -34918,7 +34922,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="404" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="404" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="9" t="s">
         <v>28</v>
       </c>
@@ -34968,7 +34972,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="405" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="405" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>39</v>
       </c>
@@ -35018,7 +35022,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="406" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="406" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>42</v>
       </c>
@@ -35068,7 +35072,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="407" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="407" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="9" t="s">
         <v>40</v>
       </c>
@@ -35118,7 +35122,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="408" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="408" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="9" t="s">
         <v>41</v>
       </c>
@@ -35168,7 +35172,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="409" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="409" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>41</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="410" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="410" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="9" t="s">
         <v>42</v>
       </c>
@@ -35268,7 +35272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="411" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="411" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="9" t="s">
         <v>28</v>
       </c>
@@ -35318,7 +35322,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="412" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="412" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>39</v>
       </c>
@@ -35368,7 +35372,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="413" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="413" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="9" t="s">
         <v>40</v>
       </c>
@@ -35418,7 +35422,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="414" spans="1:16">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A414" s="40" t="s">
         <v>28</v>
       </c>
@@ -35468,7 +35472,7 @@
         <v>88.518209619127106</v>
       </c>
     </row>
-    <row r="415" spans="1:16">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A415" s="40" t="s">
         <v>39</v>
       </c>
@@ -35518,7 +35522,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="416" spans="1:16">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A416" s="40" t="s">
         <v>40</v>
       </c>
@@ -35568,7 +35572,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A417" s="40" t="s">
         <v>41</v>
       </c>
@@ -35618,7 +35622,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="418" spans="1:16">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A418" s="40" t="s">
         <v>42</v>
       </c>
@@ -35668,7 +35672,7 @@
         <v>95.719382947410807</v>
       </c>
     </row>
-    <row r="419" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="419" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="9" t="s">
         <v>28</v>
       </c>
@@ -35718,7 +35722,7 @@
         <v>99.795779441797094</v>
       </c>
     </row>
-    <row r="420" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="420" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="9" t="s">
         <v>39</v>
       </c>
@@ -35768,7 +35772,7 @@
         <v>99.795779441797094</v>
       </c>
     </row>
-    <row r="421" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="421" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>40</v>
       </c>
@@ -35818,7 +35822,7 @@
         <v>99.795779441797094</v>
       </c>
     </row>
-    <row r="422" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="422" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>41</v>
       </c>
@@ -35868,7 +35872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="423" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="423" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="9" t="s">
         <v>42</v>
       </c>
@@ -35918,7 +35922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="424" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="424" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>28</v>
       </c>
@@ -35964,7 +35968,7 @@
       <c r="O424" s="13"/>
       <c r="P424" s="13"/>
     </row>
-    <row r="425" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="425" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>39</v>
       </c>
@@ -36010,7 +36014,7 @@
       <c r="O425" s="13"/>
       <c r="P425" s="13"/>
     </row>
-    <row r="426" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="426" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>40</v>
       </c>
@@ -36056,7 +36060,7 @@
       <c r="O426" s="13"/>
       <c r="P426" s="13"/>
     </row>
-    <row r="427" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="427" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="9" t="s">
         <v>41</v>
       </c>
@@ -36102,7 +36106,7 @@
       <c r="O427" s="13"/>
       <c r="P427" s="13"/>
     </row>
-    <row r="428" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="428" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="9" t="s">
         <v>42</v>
       </c>
@@ -36148,7 +36152,7 @@
       <c r="O428" s="13"/>
       <c r="P428" s="13"/>
     </row>
-    <row r="429" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="429" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="9" t="s">
         <v>28</v>
       </c>
@@ -36194,7 +36198,7 @@
       <c r="O429" s="13"/>
       <c r="P429" s="13"/>
     </row>
-    <row r="430" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="430" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="9" t="s">
         <v>39</v>
       </c>
@@ -36240,7 +36244,7 @@
       <c r="O430" s="13"/>
       <c r="P430" s="13"/>
     </row>
-    <row r="431" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="431" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="9" t="s">
         <v>42</v>
       </c>
@@ -36286,7 +36290,7 @@
       <c r="O431" s="13"/>
       <c r="P431" s="13"/>
     </row>
-    <row r="432" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="432" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="9" t="s">
         <v>40</v>
       </c>
@@ -36332,7 +36336,7 @@
       <c r="O432" s="13"/>
       <c r="P432" s="13"/>
     </row>
-    <row r="433" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="433" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="9" t="s">
         <v>41</v>
       </c>
@@ -36378,7 +36382,7 @@
       <c r="O433" s="13"/>
       <c r="P433" s="13"/>
     </row>
-    <row r="434" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="434" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="9" t="s">
         <v>41</v>
       </c>
@@ -36424,7 +36428,7 @@
       <c r="O434" s="13"/>
       <c r="P434" s="13"/>
     </row>
-    <row r="435" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="435" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="9" t="s">
         <v>42</v>
       </c>
@@ -36470,7 +36474,7 @@
       <c r="O435" s="13"/>
       <c r="P435" s="13"/>
     </row>
-    <row r="436" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="436" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="9" t="s">
         <v>28</v>
       </c>
@@ -36516,7 +36520,7 @@
       <c r="O436" s="13"/>
       <c r="P436" s="13"/>
     </row>
-    <row r="437" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="437" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="9" t="s">
         <v>39</v>
       </c>
@@ -36562,7 +36566,7 @@
       <c r="O437" s="13"/>
       <c r="P437" s="13"/>
     </row>
-    <row r="438" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="438" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="9" t="s">
         <v>40</v>
       </c>
@@ -36608,7 +36612,7 @@
       <c r="O438" s="13"/>
       <c r="P438" s="13"/>
     </row>
-    <row r="439" spans="1:16">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A439" s="40" t="s">
         <v>28</v>
       </c>
@@ -36654,7 +36658,7 @@
       <c r="O439" s="47"/>
       <c r="P439" s="47"/>
     </row>
-    <row r="440" spans="1:16">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A440" s="40" t="s">
         <v>39</v>
       </c>
@@ -36700,7 +36704,7 @@
       <c r="O440" s="47"/>
       <c r="P440" s="47"/>
     </row>
-    <row r="441" spans="1:16">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A441" s="40" t="s">
         <v>40</v>
       </c>
@@ -36746,7 +36750,7 @@
       <c r="O441" s="47"/>
       <c r="P441" s="47"/>
     </row>
-    <row r="442" spans="1:16">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A442" s="40" t="s">
         <v>41</v>
       </c>
@@ -36792,7 +36796,7 @@
       <c r="O442" s="47"/>
       <c r="P442" s="47"/>
     </row>
-    <row r="443" spans="1:16">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A443" s="40" t="s">
         <v>42</v>
       </c>
@@ -36838,7 +36842,7 @@
       <c r="O443" s="47"/>
       <c r="P443" s="47"/>
     </row>
-    <row r="444" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="444" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="9" t="s">
         <v>28</v>
       </c>
@@ -36884,7 +36888,7 @@
       <c r="O444" s="13"/>
       <c r="P444" s="13"/>
     </row>
-    <row r="445" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="445" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="9" t="s">
         <v>39</v>
       </c>
@@ -36930,7 +36934,7 @@
       <c r="O445" s="13"/>
       <c r="P445" s="13"/>
     </row>
-    <row r="446" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="446" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="9" t="s">
         <v>40</v>
       </c>
@@ -36976,7 +36980,7 @@
       <c r="O446" s="13"/>
       <c r="P446" s="13"/>
     </row>
-    <row r="447" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="447" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="9" t="s">
         <v>41</v>
       </c>
@@ -37022,7 +37026,7 @@
       <c r="O447" s="13"/>
       <c r="P447" s="13"/>
     </row>
-    <row r="448" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="448" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="9" t="s">
         <v>42</v>
       </c>
@@ -37068,7 +37072,7 @@
       <c r="O448" s="13"/>
       <c r="P448" s="13"/>
     </row>
-    <row r="449" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="449" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="9" t="s">
         <v>28</v>
       </c>
@@ -37118,7 +37122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="450" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>39</v>
       </c>
@@ -37168,7 +37172,7 @@
         <v>99.8433082399428</v>
       </c>
     </row>
-    <row r="451" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="451" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="9" t="s">
         <v>40</v>
       </c>
@@ -37218,7 +37222,7 @@
         <v>97.128712871287107</v>
       </c>
     </row>
-    <row r="452" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="452" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>41</v>
       </c>
@@ -37268,7 +37272,7 @@
         <v>99.685320186710001</v>
       </c>
     </row>
-    <row r="453" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="453" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="9" t="s">
         <v>42</v>
       </c>
@@ -37318,7 +37322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="454" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="454" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="9" t="s">
         <v>28</v>
       </c>
@@ -37368,7 +37372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="455" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="9" t="s">
         <v>39</v>
       </c>
@@ -37418,7 +37422,7 @@
         <v>99.980694980695006</v>
       </c>
     </row>
-    <row r="456" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="456" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="9" t="s">
         <v>42</v>
       </c>
@@ -37468,7 +37472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="457" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="457" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="9" t="s">
         <v>41</v>
       </c>
@@ -37518,7 +37522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="458" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="9" t="s">
         <v>41</v>
       </c>
@@ -37568,7 +37572,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="459" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="459" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="9" t="s">
         <v>42</v>
       </c>
@@ -37618,7 +37622,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="460" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="460" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>28</v>
       </c>
@@ -37668,7 +37672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="461" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="461" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
         <v>39</v>
       </c>
@@ -37718,7 +37722,7 @@
         <v>99.8433082399428</v>
       </c>
     </row>
-    <row r="462" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="462" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
         <v>40</v>
       </c>
@@ -37768,7 +37772,7 @@
         <v>97.128712871287107</v>
       </c>
     </row>
-    <row r="463" spans="1:16">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A463" s="40" t="s">
         <v>28</v>
       </c>
@@ -37818,7 +37822,7 @@
         <v>97.128712871287107</v>
       </c>
     </row>
-    <row r="464" spans="1:16">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A464" s="40" t="s">
         <v>39</v>
       </c>
@@ -37868,7 +37872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="1:16">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A465" s="40" t="s">
         <v>40</v>
       </c>
@@ -37918,7 +37922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:16">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A466" s="40" t="s">
         <v>41</v>
       </c>
@@ -37968,7 +37972,7 @@
         <v>99.929077816931795</v>
       </c>
     </row>
-    <row r="467" spans="1:16">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A467" s="40" t="s">
         <v>42</v>
       </c>
@@ -38018,7 +38022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="468" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="468" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>28</v>
       </c>
@@ -38068,7 +38072,7 @@
         <v>99.450897571277693</v>
       </c>
     </row>
-    <row r="469" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="469" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
         <v>39</v>
       </c>
@@ -38118,7 +38122,7 @@
         <v>99.970170300466407</v>
       </c>
     </row>
-    <row r="470" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="470" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>40</v>
       </c>
@@ -38168,7 +38172,7 @@
         <v>99.865229110512104</v>
       </c>
     </row>
-    <row r="471" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="471" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>41</v>
       </c>
@@ -38218,7 +38222,7 @@
         <v>99.774890407171895</v>
       </c>
     </row>
-    <row r="472" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="472" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>42</v>
       </c>
@@ -38268,7 +38272,7 @@
         <v>99.882052290151407</v>
       </c>
     </row>
-    <row r="473" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="473" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="9" t="s">
         <v>28</v>
       </c>
@@ -38318,7 +38322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="474" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>39</v>
       </c>
@@ -38368,7 +38372,7 @@
         <v>99.905974869646997</v>
       </c>
     </row>
-    <row r="475" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="475" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="9" t="s">
         <v>40</v>
       </c>
@@ -38418,7 +38422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="476" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="476" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="9" t="s">
         <v>41</v>
       </c>
@@ -38468,7 +38472,7 @@
         <v>99.627116116041506</v>
       </c>
     </row>
-    <row r="477" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="477" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>42</v>
       </c>
@@ -38518,7 +38522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="478" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="9" t="s">
         <v>28</v>
       </c>
@@ -38568,7 +38572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="479" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="479" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>39</v>
       </c>
@@ -38618,7 +38622,7 @@
         <v>99.934512115258698</v>
       </c>
     </row>
-    <row r="480" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="480" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>42</v>
       </c>
@@ -38668,7 +38672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="481" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="481" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>40</v>
       </c>
@@ -38718,7 +38722,7 @@
         <v>99.934512115258698</v>
       </c>
     </row>
-    <row r="482" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="482" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>41</v>
       </c>
@@ -38768,7 +38772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="483" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>41</v>
       </c>
@@ -38818,7 +38822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="484" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="484" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>42</v>
       </c>
@@ -38868,7 +38872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="485" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="485" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>28</v>
       </c>
@@ -38918,7 +38922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="486" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="486" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>39</v>
       </c>
@@ -38968,7 +38972,7 @@
         <v>99.905974869646997</v>
       </c>
     </row>
-    <row r="487" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="487" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>40</v>
       </c>
@@ -39018,7 +39022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="488" spans="1:16">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A488" s="40" t="s">
         <v>28</v>
       </c>
@@ -39068,7 +39072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="489" spans="1:16">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A489" s="40" t="s">
         <v>39</v>
       </c>
@@ -39118,7 +39122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="490" spans="1:16">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A490" s="40" t="s">
         <v>40</v>
       </c>
@@ -39168,7 +39172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="491" spans="1:16">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A491" s="40" t="s">
         <v>41</v>
       </c>
@@ -39218,7 +39222,7 @@
         <v>99.929077816931795</v>
       </c>
     </row>
-    <row r="492" spans="1:16">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A492" s="40" t="s">
         <v>42</v>
       </c>
@@ -39268,7 +39272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="493" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="493" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="9" t="s">
         <v>28</v>
       </c>
@@ -39318,7 +39322,7 @@
         <v>99.450897571277693</v>
       </c>
     </row>
-    <row r="494" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="494" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="9" t="s">
         <v>39</v>
       </c>
@@ -39368,7 +39372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="495" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="495" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="9" t="s">
         <v>40</v>
       </c>
@@ -39418,7 +39422,7 @@
         <v>99.886621315192698</v>
       </c>
     </row>
-    <row r="496" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="496" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="9" t="s">
         <v>41</v>
       </c>
@@ -39468,7 +39472,7 @@
         <v>99.894079607537094</v>
       </c>
     </row>
-    <row r="497" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="497" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="9" t="s">
         <v>42</v>
       </c>
@@ -39518,7 +39522,7 @@
         <v>99.855222337125099</v>
       </c>
     </row>
-    <row r="498" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="498" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="9" t="s">
         <v>28</v>
       </c>
@@ -39564,7 +39568,7 @@
       <c r="O498" s="13"/>
       <c r="P498" s="13"/>
     </row>
-    <row r="499" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="499" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="9" t="s">
         <v>39</v>
       </c>
@@ -39610,7 +39614,7 @@
       <c r="O499" s="13"/>
       <c r="P499" s="13"/>
     </row>
-    <row r="500" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="500" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="9" t="s">
         <v>40</v>
       </c>
@@ -39656,7 +39660,7 @@
       <c r="O500" s="13"/>
       <c r="P500" s="13"/>
     </row>
-    <row r="501" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="501" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="9" t="s">
         <v>41</v>
       </c>
@@ -39702,7 +39706,7 @@
       <c r="O501" s="13"/>
       <c r="P501" s="13"/>
     </row>
-    <row r="502" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="502" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="9" t="s">
         <v>42</v>
       </c>
@@ -39748,7 +39752,7 @@
       <c r="O502" s="13"/>
       <c r="P502" s="13"/>
     </row>
-    <row r="503" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="503" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="9" t="s">
         <v>28</v>
       </c>
@@ -39794,7 +39798,7 @@
       <c r="O503" s="15"/>
       <c r="P503" s="15"/>
     </row>
-    <row r="504" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="504" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="9" t="s">
         <v>39</v>
       </c>
@@ -39840,7 +39844,7 @@
       <c r="O504" s="15"/>
       <c r="P504" s="15"/>
     </row>
-    <row r="505" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="505" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="9" t="s">
         <v>42</v>
       </c>
@@ -39886,7 +39890,7 @@
       <c r="O505" s="15"/>
       <c r="P505" s="15"/>
     </row>
-    <row r="506" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="506" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="9" t="s">
         <v>40</v>
       </c>
@@ -39932,7 +39936,7 @@
       <c r="O506" s="15"/>
       <c r="P506" s="15"/>
     </row>
-    <row r="507" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="507" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="9" t="s">
         <v>41</v>
       </c>
@@ -39978,7 +39982,7 @@
       <c r="O507" s="15"/>
       <c r="P507" s="15"/>
     </row>
-    <row r="508" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="508" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="9" t="s">
         <v>41</v>
       </c>
@@ -40024,7 +40028,7 @@
       <c r="O508" s="13"/>
       <c r="P508" s="13"/>
     </row>
-    <row r="509" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="509" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="9" t="s">
         <v>42</v>
       </c>
@@ -40070,7 +40074,7 @@
       <c r="O509" s="13"/>
       <c r="P509" s="13"/>
     </row>
-    <row r="510" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="510" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="9" t="s">
         <v>28</v>
       </c>
@@ -40116,7 +40120,7 @@
       <c r="O510" s="13"/>
       <c r="P510" s="13"/>
     </row>
-    <row r="511" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="511" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="9" t="s">
         <v>39</v>
       </c>
@@ -40162,7 +40166,7 @@
       <c r="O511" s="13"/>
       <c r="P511" s="13"/>
     </row>
-    <row r="512" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="512" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="9" t="s">
         <v>40</v>
       </c>
@@ -40208,7 +40212,7 @@
       <c r="O512" s="13"/>
       <c r="P512" s="13"/>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A513" s="40" t="s">
         <v>28</v>
       </c>
@@ -40254,7 +40258,7 @@
       <c r="O513" s="47"/>
       <c r="P513" s="47"/>
     </row>
-    <row r="514" spans="1:16">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A514" s="40" t="s">
         <v>39</v>
       </c>
@@ -40300,7 +40304,7 @@
       <c r="O514" s="47"/>
       <c r="P514" s="47"/>
     </row>
-    <row r="515" spans="1:16">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A515" s="40" t="s">
         <v>40</v>
       </c>
@@ -40346,7 +40350,7 @@
       <c r="O515" s="47"/>
       <c r="P515" s="47"/>
     </row>
-    <row r="516" spans="1:16">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A516" s="40" t="s">
         <v>41</v>
       </c>
@@ -40392,7 +40396,7 @@
       <c r="O516" s="47"/>
       <c r="P516" s="47"/>
     </row>
-    <row r="517" spans="1:16">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A517" s="40" t="s">
         <v>42</v>
       </c>
@@ -40438,7 +40442,7 @@
       <c r="O517" s="47"/>
       <c r="P517" s="47"/>
     </row>
-    <row r="518" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="518" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="9" t="s">
         <v>28</v>
       </c>
@@ -40484,7 +40488,7 @@
       <c r="O518" s="13"/>
       <c r="P518" s="13"/>
     </row>
-    <row r="519" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="519" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="9" t="s">
         <v>39</v>
       </c>
@@ -40530,7 +40534,7 @@
       <c r="O519" s="13"/>
       <c r="P519" s="13"/>
     </row>
-    <row r="520" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="520" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="9" t="s">
         <v>40</v>
       </c>
@@ -40576,7 +40580,7 @@
       <c r="O520" s="13"/>
       <c r="P520" s="13"/>
     </row>
-    <row r="521" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="521" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="9" t="s">
         <v>41</v>
       </c>
@@ -40622,7 +40626,7 @@
       <c r="O521" s="13"/>
       <c r="P521" s="13"/>
     </row>
-    <row r="522" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="522" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="9" t="s">
         <v>42</v>
       </c>
@@ -40668,7 +40672,7 @@
       <c r="O522" s="13"/>
       <c r="P522" s="13"/>
     </row>
-    <row r="523" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="523" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="9" t="s">
         <v>28</v>
       </c>
@@ -40718,7 +40722,7 @@
         <v>99.676470588235304</v>
       </c>
     </row>
-    <row r="524" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="524" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="9" t="s">
         <v>39</v>
       </c>
@@ -40768,7 +40772,7 @@
         <v>99.972749259120505</v>
       </c>
     </row>
-    <row r="525" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="525" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="9" t="s">
         <v>40</v>
       </c>
@@ -40818,7 +40822,7 @@
         <v>99.405940594059402</v>
       </c>
     </row>
-    <row r="526" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="526" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="9" t="s">
         <v>41</v>
       </c>
@@ -40868,7 +40872,7 @@
         <v>99.979021345780694</v>
       </c>
     </row>
-    <row r="527" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="527" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="9" t="s">
         <v>42</v>
       </c>
@@ -40918,7 +40922,7 @@
         <v>99.859343603482898</v>
       </c>
     </row>
-    <row r="528" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="528" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="9" t="s">
         <v>28</v>
       </c>
@@ -40968,7 +40972,7 @@
         <v>99.987184963690694</v>
       </c>
     </row>
-    <row r="529" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="529" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="9" t="s">
         <v>39</v>
       </c>
@@ -41018,7 +41022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="530" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="530" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="9" t="s">
         <v>42</v>
       </c>
@@ -41068,7 +41072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="531" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="531" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="9" t="s">
         <v>41</v>
       </c>
@@ -41118,7 +41122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="532" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="9" t="s">
         <v>41</v>
       </c>
@@ -41168,7 +41172,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="533" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="533" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="9" t="s">
         <v>42</v>
       </c>
@@ -41218,7 +41222,7 @@
         <v>99.818602330960104</v>
       </c>
     </row>
-    <row r="534" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="534" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="9" t="s">
         <v>28</v>
       </c>
@@ -41268,7 +41272,7 @@
         <v>99.676470588235304</v>
       </c>
     </row>
-    <row r="535" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="535" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="9" t="s">
         <v>39</v>
       </c>
@@ -41318,7 +41322,7 @@
         <v>99.972749259120505</v>
       </c>
     </row>
-    <row r="536" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="536" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="9" t="s">
         <v>40</v>
       </c>
@@ -41368,7 +41372,7 @@
         <v>99.405940594059402</v>
       </c>
     </row>
-    <row r="537" spans="1:16">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A537" s="40" t="s">
         <v>28</v>
       </c>
@@ -41418,7 +41422,7 @@
         <v>99.405940594059402</v>
       </c>
     </row>
-    <row r="538" spans="1:16">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A538" s="40" t="s">
         <v>39</v>
       </c>
@@ -41468,7 +41472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="539" spans="1:16">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A539" s="40" t="s">
         <v>40</v>
       </c>
@@ -41518,7 +41522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="540" spans="1:16">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A540" s="40" t="s">
         <v>41</v>
       </c>
@@ -41568,7 +41572,7 @@
         <v>99.999443747583797</v>
       </c>
     </row>
-    <row r="541" spans="1:16">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A541" s="40" t="s">
         <v>42</v>
       </c>
@@ -41618,7 +41622,7 @@
         <v>99.859343603482898</v>
       </c>
     </row>
-    <row r="542" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="542" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="9" t="s">
         <v>28</v>
       </c>
@@ -41668,7 +41672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="543" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="543" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="9" t="s">
         <v>39</v>
       </c>
@@ -41718,7 +41722,7 @@
         <v>99.915934483132702</v>
       </c>
     </row>
-    <row r="544" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="544" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="9" t="s">
         <v>40</v>
       </c>
@@ -41768,7 +41772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="545" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="545" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="9" t="s">
         <v>41</v>
       </c>
@@ -41818,7 +41822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="546" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="546" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="9" t="s">
         <v>42</v>
       </c>
@@ -41868,7 +41872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="547" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="547" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="9" t="s">
         <v>28</v>
       </c>
@@ -41918,7 +41922,7 @@
         <v>99.676470588235304</v>
       </c>
     </row>
-    <row r="548" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="548" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="9" t="s">
         <v>39</v>
       </c>
@@ -41968,7 +41972,7 @@
         <v>99.987178391315496</v>
       </c>
     </row>
-    <row r="549" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="549" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="9" t="s">
         <v>40</v>
       </c>
@@ -42018,7 +42022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="550" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="550" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="9" t="s">
         <v>41</v>
       </c>
@@ -42068,7 +42072,7 @@
         <v>99.962711611604206</v>
       </c>
     </row>
-    <row r="551" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="551" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="9" t="s">
         <v>42</v>
       </c>
@@ -42118,7 +42122,7 @@
         <v>99.912245712006396</v>
       </c>
     </row>
-    <row r="552" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="552" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="9" t="s">
         <v>28</v>
       </c>
@@ -42168,7 +42172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="553" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="553" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="9" t="s">
         <v>39</v>
       </c>
@@ -42218,7 +42222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="554" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="554" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="9" t="s">
         <v>42</v>
       </c>
@@ -42268,7 +42272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="555" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="555" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="9" t="s">
         <v>40</v>
       </c>
@@ -42318,7 +42322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="556" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="556" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="9" t="s">
         <v>41</v>
       </c>
@@ -42368,7 +42372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="557" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="557" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="9" t="s">
         <v>41</v>
       </c>
@@ -42418,7 +42422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="558" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="558" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="9" t="s">
         <v>42</v>
       </c>
@@ -42468,7 +42472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="559" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="559" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="9" t="s">
         <v>28</v>
       </c>
@@ -42518,7 +42522,7 @@
         <v>99.676470588235304</v>
       </c>
     </row>
-    <row r="560" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="560" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="9" t="s">
         <v>39</v>
       </c>
@@ -42568,7 +42572,7 @@
         <v>99.987178391315496</v>
       </c>
     </row>
-    <row r="561" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="561" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="9" t="s">
         <v>40</v>
       </c>
@@ -42618,7 +42622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="562" spans="1:16">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A562" s="40" t="s">
         <v>28</v>
       </c>
@@ -42668,7 +42672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="563" spans="1:16">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A563" s="40" t="s">
         <v>39</v>
       </c>
@@ -42718,7 +42722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="564" spans="1:16">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A564" s="40" t="s">
         <v>40</v>
       </c>
@@ -42768,7 +42772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="565" spans="1:16">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A565" s="40" t="s">
         <v>41</v>
       </c>
@@ -42818,7 +42822,7 @@
         <v>99.999443747583797</v>
       </c>
     </row>
-    <row r="566" spans="1:16">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A566" s="40" t="s">
         <v>42</v>
       </c>
@@ -42868,7 +42872,7 @@
         <v>99.912245712006396</v>
       </c>
     </row>
-    <row r="567" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="567" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="9" t="s">
         <v>28</v>
       </c>
@@ -42918,7 +42922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="568" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="568" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="9" t="s">
         <v>39</v>
       </c>
@@ -42968,7 +42972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="569" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="569" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="9" t="s">
         <v>40</v>
       </c>
@@ -43018,7 +43022,7 @@
         <v>99.886621315192698</v>
       </c>
     </row>
-    <row r="570" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="570" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="9" t="s">
         <v>41</v>
       </c>
@@ -43068,7 +43072,7 @@
         <v>99.988850485003894</v>
       </c>
     </row>
-    <row r="571" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="571" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="9" t="s">
         <v>42</v>
       </c>
@@ -43118,7 +43122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="572" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="572" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="9" t="s">
         <v>28</v>
       </c>
@@ -43164,7 +43168,7 @@
       <c r="O572" s="13"/>
       <c r="P572" s="13"/>
     </row>
-    <row r="573" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="573" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="9" t="s">
         <v>39</v>
       </c>
@@ -43210,7 +43214,7 @@
       <c r="O573" s="13"/>
       <c r="P573" s="13"/>
     </row>
-    <row r="574" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="574" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="9" t="s">
         <v>40</v>
       </c>
@@ -43256,7 +43260,7 @@
       <c r="O574" s="13"/>
       <c r="P574" s="13"/>
     </row>
-    <row r="575" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="575" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="9" t="s">
         <v>41</v>
       </c>
@@ -43302,7 +43306,7 @@
       <c r="O575" s="13"/>
       <c r="P575" s="13"/>
     </row>
-    <row r="576" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="576" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="9" t="s">
         <v>42</v>
       </c>
@@ -43348,7 +43352,7 @@
       <c r="O576" s="13"/>
       <c r="P576" s="13"/>
     </row>
-    <row r="577" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="577" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="9" t="s">
         <v>28</v>
       </c>
@@ -43394,7 +43398,7 @@
       <c r="O577" s="15"/>
       <c r="P577" s="15"/>
     </row>
-    <row r="578" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="578" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="9" t="s">
         <v>39</v>
       </c>
@@ -43440,7 +43444,7 @@
       <c r="O578" s="15"/>
       <c r="P578" s="15"/>
     </row>
-    <row r="579" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="579" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="9" t="s">
         <v>42</v>
       </c>
@@ -43486,7 +43490,7 @@
       <c r="O579" s="15"/>
       <c r="P579" s="15"/>
     </row>
-    <row r="580" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="580" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="9" t="s">
         <v>40</v>
       </c>
@@ -43532,7 +43536,7 @@
       <c r="O580" s="15"/>
       <c r="P580" s="15"/>
     </row>
-    <row r="581" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="581" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="9" t="s">
         <v>41</v>
       </c>
@@ -43578,7 +43582,7 @@
       <c r="O581" s="15"/>
       <c r="P581" s="15"/>
     </row>
-    <row r="582" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="582" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="9" t="s">
         <v>41</v>
       </c>
@@ -43624,7 +43628,7 @@
       <c r="O582" s="13"/>
       <c r="P582" s="13"/>
     </row>
-    <row r="583" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="583" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="9" t="s">
         <v>42</v>
       </c>
@@ -43670,7 +43674,7 @@
       <c r="O583" s="13"/>
       <c r="P583" s="13"/>
     </row>
-    <row r="584" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="584" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="9" t="s">
         <v>28</v>
       </c>
@@ -43716,7 +43720,7 @@
       <c r="O584" s="13"/>
       <c r="P584" s="13"/>
     </row>
-    <row r="585" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="585" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="9" t="s">
         <v>39</v>
       </c>
@@ -43762,7 +43766,7 @@
       <c r="O585" s="13"/>
       <c r="P585" s="13"/>
     </row>
-    <row r="586" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="586" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="9" t="s">
         <v>40</v>
       </c>
@@ -43808,7 +43812,7 @@
       <c r="O586" s="13"/>
       <c r="P586" s="13"/>
     </row>
-    <row r="587" spans="1:16">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A587" s="40" t="s">
         <v>28</v>
       </c>
@@ -43854,7 +43858,7 @@
       <c r="O587" s="47"/>
       <c r="P587" s="47"/>
     </row>
-    <row r="588" spans="1:16">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A588" s="40" t="s">
         <v>39</v>
       </c>
@@ -43900,7 +43904,7 @@
       <c r="O588" s="47"/>
       <c r="P588" s="47"/>
     </row>
-    <row r="589" spans="1:16">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A589" s="40" t="s">
         <v>40</v>
       </c>
@@ -43946,7 +43950,7 @@
       <c r="O589" s="47"/>
       <c r="P589" s="47"/>
     </row>
-    <row r="590" spans="1:16">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A590" s="40" t="s">
         <v>41</v>
       </c>
@@ -43992,7 +43996,7 @@
       <c r="O590" s="47"/>
       <c r="P590" s="47"/>
     </row>
-    <row r="591" spans="1:16">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A591" s="40" t="s">
         <v>42</v>
       </c>
@@ -44038,7 +44042,7 @@
       <c r="O591" s="47"/>
       <c r="P591" s="47"/>
     </row>
-    <row r="592" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="592" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="9" t="s">
         <v>28</v>
       </c>
@@ -44084,7 +44088,7 @@
       <c r="O592" s="13"/>
       <c r="P592" s="13"/>
     </row>
-    <row r="593" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="593" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="9" t="s">
         <v>39</v>
       </c>
@@ -44130,7 +44134,7 @@
       <c r="O593" s="13"/>
       <c r="P593" s="13"/>
     </row>
-    <row r="594" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="594" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="9" t="s">
         <v>40</v>
       </c>
@@ -44176,7 +44180,7 @@
       <c r="O594" s="13"/>
       <c r="P594" s="13"/>
     </row>
-    <row r="595" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="595" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="9" t="s">
         <v>41</v>
       </c>
@@ -44222,7 +44226,7 @@
       <c r="O595" s="13"/>
       <c r="P595" s="13"/>
     </row>
-    <row r="596" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="596" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="9" t="s">
         <v>42</v>
       </c>
@@ -44268,7 +44272,7 @@
       <c r="O596" s="13"/>
       <c r="P596" s="13"/>
     </row>
-    <row r="597" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="597" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="5" t="s">
         <v>28</v>
       </c>
@@ -44318,7 +44322,7 @@
         <v>8464660.8711461034</v>
       </c>
     </row>
-    <row r="598" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="598" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="5" t="s">
         <v>28</v>
       </c>
@@ -44368,7 +44372,7 @@
         <v>4936844.2321930248</v>
       </c>
     </row>
-    <row r="599" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="599" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="5" t="s">
         <v>28</v>
       </c>
@@ -44418,7 +44422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="600" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="5" t="s">
         <v>28</v>
       </c>
@@ -44468,7 +44472,7 @@
         <v>1941719.3240226966</v>
       </c>
     </row>
-    <row r="601" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="601" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="5" t="s">
         <v>28</v>
       </c>
@@ -44518,7 +44522,7 @@
         <v>1790857.0271736388</v>
       </c>
     </row>
-    <row r="602" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="602" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="5" t="s">
         <v>28</v>
       </c>
@@ -44568,7 +44572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="603" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="5" t="s">
         <v>28</v>
       </c>
@@ -44618,7 +44622,7 @@
         <v>681975.69833318121</v>
       </c>
     </row>
-    <row r="604" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="604" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="5" t="s">
         <v>28</v>
       </c>
@@ -44668,7 +44672,7 @@
         <v>1885766.3909808632</v>
       </c>
     </row>
-    <row r="605" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="605" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="5" t="s">
         <v>28</v>
       </c>
@@ -44718,7 +44722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="606" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="5" t="s">
         <v>28</v>
       </c>
@@ -44768,7 +44772,7 @@
         <v>120213.95753820303</v>
       </c>
     </row>
-    <row r="607" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="607" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="5" t="s">
         <v>28</v>
       </c>
@@ -44818,7 +44822,7 @@
         <v>119516.23373959282</v>
       </c>
     </row>
-    <row r="608" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="608" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="5" t="s">
         <v>28</v>
       </c>
@@ -44868,7 +44872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:16">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A609" s="5" t="s">
         <v>28</v>
       </c>
@@ -44918,7 +44922,7 @@
         <v>1704758.6352618265</v>
       </c>
     </row>
-    <row r="610" spans="1:16">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A610" s="5" t="s">
         <v>28</v>
       </c>
@@ -44968,7 +44972,7 @@
         <v>2070575.8270271355</v>
       </c>
     </row>
-    <row r="611" spans="1:16">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A611" s="5" t="s">
         <v>28</v>
       </c>
@@ -45018,7 +45022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="612" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="5" t="s">
         <v>39</v>
       </c>
@@ -45068,7 +45072,7 @@
         <v>2976521.6695124423</v>
       </c>
     </row>
-    <row r="613" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="613" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="5" t="s">
         <v>39</v>
       </c>
@@ -45118,7 +45122,7 @@
         <v>2293581.8835946163</v>
       </c>
     </row>
-    <row r="614" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="614" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="5" t="s">
         <v>39</v>
       </c>
@@ -45168,7 +45172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="615" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="5" t="s">
         <v>39</v>
       </c>
@@ -45218,7 +45222,7 @@
         <v>4513988.5900356583</v>
       </c>
     </row>
-    <row r="616" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="616" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="5" t="s">
         <v>39</v>
       </c>
@@ -45268,7 +45272,7 @@
         <v>2241449.5240185536</v>
       </c>
     </row>
-    <row r="617" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="617" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="5" t="s">
         <v>39</v>
       </c>
@@ -45318,7 +45322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="618" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="5" t="s">
         <v>39</v>
       </c>
@@ -45368,7 +45372,7 @@
         <v>2343485.8730737199</v>
       </c>
     </row>
-    <row r="619" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="619" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="5" t="s">
         <v>39</v>
       </c>
@@ -45418,7 +45422,7 @@
         <v>2680183.4024030371</v>
       </c>
     </row>
-    <row r="620" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="620" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="5" t="s">
         <v>39</v>
       </c>
@@ -45468,7 +45472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="621" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="5" t="s">
         <v>39</v>
       </c>
@@ -45518,7 +45522,7 @@
         <v>10087.49815065123</v>
       </c>
     </row>
-    <row r="622" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="622" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="5" t="s">
         <v>39</v>
       </c>
@@ -45568,7 +45572,7 @@
         <v>7360.1131616951707</v>
       </c>
     </row>
-    <row r="623" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="623" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="5" t="s">
         <v>39</v>
       </c>
@@ -45618,7 +45622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:16">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A624" s="5" t="s">
         <v>39</v>
       </c>
@@ -45668,7 +45672,7 @@
         <v>850320.10102097364</v>
       </c>
     </row>
-    <row r="625" spans="1:16">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A625" s="5" t="s">
         <v>39</v>
       </c>
@@ -45718,7 +45722,7 @@
         <v>728872.23377483524</v>
       </c>
     </row>
-    <row r="626" spans="1:16">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A626" s="5" t="s">
         <v>39</v>
       </c>
@@ -45768,7 +45772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="627" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="5" t="s">
         <v>40</v>
       </c>
@@ -45818,7 +45822,7 @@
         <v>149693.82975085484</v>
       </c>
     </row>
-    <row r="628" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="628" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="5" t="s">
         <v>40</v>
       </c>
@@ -45868,7 +45872,7 @@
         <v>67984.109278452306</v>
       </c>
     </row>
-    <row r="629" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="629" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="5" t="s">
         <v>40</v>
       </c>
@@ -45918,7 +45922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="630" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="5" t="s">
         <v>40</v>
       </c>
@@ -45968,7 +45972,7 @@
         <v>603223.99862835649</v>
       </c>
     </row>
-    <row r="631" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="631" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="5" t="s">
         <v>40</v>
       </c>
@@ -46018,7 +46022,7 @@
         <v>778622.90289520484</v>
       </c>
     </row>
-    <row r="632" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="632" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="5" t="s">
         <v>40</v>
       </c>
@@ -46068,7 +46072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="633" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="5" t="s">
         <v>40</v>
       </c>
@@ -46118,7 +46122,7 @@
         <v>1232.343053764047</v>
       </c>
     </row>
-    <row r="634" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="634" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="5" t="s">
         <v>40</v>
       </c>
@@ -46168,7 +46172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="635" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="5" t="s">
         <v>40</v>
       </c>
@@ -46218,7 +46222,7 @@
         <v>169104.48095126293</v>
       </c>
     </row>
-    <row r="636" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="636" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="5" t="s">
         <v>40</v>
       </c>
@@ -46268,7 +46272,7 @@
         <v>105403.51533071007</v>
       </c>
     </row>
-    <row r="637" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="637" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="5" t="s">
         <v>40</v>
       </c>
@@ -46318,7 +46322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:16">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A638" s="5" t="s">
         <v>40</v>
       </c>
@@ -46368,7 +46372,7 @@
         <v>110931.85882388723</v>
       </c>
     </row>
-    <row r="639" spans="1:16">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A639" s="5" t="s">
         <v>40</v>
       </c>
@@ -46418,7 +46422,7 @@
         <v>-10738.81907424915</v>
       </c>
     </row>
-    <row r="640" spans="1:16">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A640" s="5" t="s">
         <v>40</v>
       </c>
@@ -46468,7 +46472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="641" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="5" t="s">
         <v>41</v>
       </c>
@@ -46518,7 +46522,7 @@
         <v>616418.56810635654</v>
       </c>
     </row>
-    <row r="642" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="642" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="5" t="s">
         <v>41</v>
       </c>
@@ -46568,7 +46572,7 @@
         <v>620792.71689852246</v>
       </c>
     </row>
-    <row r="643" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="643" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="5" t="s">
         <v>41</v>
       </c>
@@ -46618,7 +46622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="644" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="5" t="s">
         <v>41</v>
       </c>
@@ -46668,7 +46672,7 @@
         <v>1374990.3877163529</v>
       </c>
     </row>
-    <row r="645" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="645" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="5" t="s">
         <v>41</v>
       </c>
@@ -46718,7 +46722,7 @@
         <v>1745548.4660229965</v>
       </c>
     </row>
-    <row r="646" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="646" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="5" t="s">
         <v>41</v>
       </c>
@@ -46768,7 +46772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="647" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="5" t="s">
         <v>41</v>
       </c>
@@ -46818,7 +46822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="648" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="5" t="s">
         <v>41</v>
       </c>
@@ -46868,7 +46872,7 @@
         <v>4485313.9373458428</v>
       </c>
     </row>
-    <row r="649" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="649" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="5" t="s">
         <v>41</v>
       </c>
@@ -46918,7 +46922,7 @@
         <v>3475185.3629561933</v>
       </c>
     </row>
-    <row r="650" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="650" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="5" t="s">
         <v>41</v>
       </c>
@@ -46968,7 +46972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:16">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A651" s="5" t="s">
         <v>41</v>
       </c>
@@ -47018,7 +47022,7 @@
         <v>409157.77095955686</v>
       </c>
     </row>
-    <row r="652" spans="1:16">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A652" s="5" t="s">
         <v>41</v>
       </c>
@@ -47068,7 +47072,7 @@
         <v>672957.95770256082</v>
       </c>
     </row>
-    <row r="653" spans="1:16">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A653" s="5" t="s">
         <v>41</v>
       </c>
@@ -47118,7 +47122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="654" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="5" t="s">
         <v>42</v>
       </c>
@@ -47168,7 +47172,7 @@
         <v>13574237.489648879</v>
       </c>
     </row>
-    <row r="655" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="655" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="5" t="s">
         <v>42</v>
       </c>
@@ -47218,7 +47222,7 @@
         <v>12805244.871396001</v>
       </c>
     </row>
-    <row r="656" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="656" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="5" t="s">
         <v>42</v>
       </c>
@@ -47268,7 +47272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="657" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="5" t="s">
         <v>42</v>
       </c>
@@ -47318,7 +47322,7 @@
         <v>7166267.532408678</v>
       </c>
     </row>
-    <row r="658" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="658" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="5" t="s">
         <v>42</v>
       </c>
@@ -47368,7 +47372,7 @@
         <v>7141338.1397651639</v>
       </c>
     </row>
-    <row r="659" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="659" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="5" t="s">
         <v>42</v>
       </c>
@@ -47418,7 +47422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="660" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="5" t="s">
         <v>42</v>
       </c>
@@ -47468,7 +47472,7 @@
         <v>3009366.2832405199</v>
       </c>
     </row>
-    <row r="661" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="661" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="5" t="s">
         <v>42</v>
       </c>
@@ -47518,7 +47522,7 @@
         <v>3291088.1178269153</v>
       </c>
     </row>
-    <row r="662" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="662" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="5" t="s">
         <v>42</v>
       </c>
@@ -47568,7 +47572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="663" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="5" t="s">
         <v>42</v>
       </c>
@@ -47618,7 +47622,7 @@
         <v>4161715.7877055444</v>
       </c>
     </row>
-    <row r="664" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="664" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="5" t="s">
         <v>42</v>
       </c>
@@ -47668,7 +47672,7 @@
         <v>5445815.0315349139</v>
       </c>
     </row>
-    <row r="665" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="665" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="5" t="s">
         <v>42</v>
       </c>
@@ -47718,7 +47722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:16">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A666" s="5" t="s">
         <v>42</v>
       </c>
@@ -47768,7 +47772,7 @@
         <v>5458395.5540201254</v>
       </c>
     </row>
-    <row r="667" spans="1:16">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A667" s="5" t="s">
         <v>42</v>
       </c>
@@ -47818,7 +47822,7 @@
         <v>6296479.3063388346</v>
       </c>
     </row>
-    <row r="668" spans="1:16">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A668" s="5" t="s">
         <v>42</v>
       </c>
@@ -47868,7 +47872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="669" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="5" t="s">
         <v>28</v>
       </c>
@@ -47918,7 +47922,7 @@
         <v>3462939.312992299</v>
       </c>
     </row>
-    <row r="670" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="670" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="5" t="s">
         <v>28</v>
       </c>
@@ -47968,7 +47972,7 @@
         <v>1668364.4555472829</v>
       </c>
     </row>
-    <row r="671" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="671" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="5" t="s">
         <v>28</v>
       </c>
@@ -48018,7 +48022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="672" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="5" t="s">
         <v>28</v>
       </c>
@@ -48068,7 +48072,7 @@
         <v>1122182.6647636862</v>
       </c>
     </row>
-    <row r="673" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="673" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="5" t="s">
         <v>28</v>
       </c>
@@ -48118,7 +48122,7 @@
         <v>1542581.2808343454</v>
       </c>
     </row>
-    <row r="674" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="674" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="5" t="s">
         <v>28</v>
       </c>
@@ -48168,7 +48172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="675" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="5" t="s">
         <v>28</v>
       </c>
@@ -48218,7 +48222,7 @@
         <v>394858.07874265005</v>
       </c>
     </row>
-    <row r="676" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="676" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="5" t="s">
         <v>28</v>
       </c>
@@ -48268,7 +48272,7 @@
         <v>497291.0852358836</v>
       </c>
     </row>
-    <row r="677" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="677" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="5" t="s">
         <v>28</v>
       </c>
@@ -48318,7 +48322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="678" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="5" t="s">
         <v>28</v>
       </c>
@@ -48368,7 +48372,7 @@
         <v>56147.45655334719</v>
       </c>
     </row>
-    <row r="679" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="679" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="5" t="s">
         <v>28</v>
       </c>
@@ -48418,7 +48422,7 @@
         <v>55384.186491137407</v>
       </c>
     </row>
-    <row r="680" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="680" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="5" t="s">
         <v>28</v>
       </c>
@@ -48468,7 +48472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:16">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A681" s="5" t="s">
         <v>28</v>
       </c>
@@ -48518,7 +48522,7 @@
         <v>1516726.8307296671</v>
       </c>
     </row>
-    <row r="682" spans="1:16">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A682" s="5" t="s">
         <v>28</v>
       </c>
@@ -48568,7 +48572,7 @@
         <v>1820371.3568934395</v>
       </c>
     </row>
-    <row r="683" spans="1:16">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A683" s="5" t="s">
         <v>28</v>
       </c>
@@ -48618,7 +48622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="684" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="5" t="s">
         <v>39</v>
       </c>
@@ -48668,7 +48672,7 @@
         <v>1417206.8599658315</v>
       </c>
     </row>
-    <row r="685" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="685" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="5" t="s">
         <v>39</v>
       </c>
@@ -48718,7 +48722,7 @@
         <v>1175418.5767225605</v>
       </c>
     </row>
-    <row r="686" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="686" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="5" t="s">
         <v>39</v>
       </c>
@@ -48768,7 +48772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="687" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="5" t="s">
         <v>39</v>
       </c>
@@ -48818,7 +48822,7 @@
         <v>1807688.6938870347</v>
       </c>
     </row>
-    <row r="688" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="688" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="5" t="s">
         <v>39</v>
       </c>
@@ -48868,7 +48872,7 @@
         <v>1277617.2195998603</v>
       </c>
     </row>
-    <row r="689" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="689" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="5" t="s">
         <v>39</v>
       </c>
@@ -48918,7 +48922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="690" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="5" t="s">
         <v>39</v>
       </c>
@@ -48968,7 +48972,7 @@
         <v>1136848.8948258737</v>
       </c>
     </row>
-    <row r="691" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="691" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="5" t="s">
         <v>39</v>
       </c>
@@ -49018,7 +49022,7 @@
         <v>984244.27419224032</v>
       </c>
     </row>
-    <row r="692" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="692" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="5" t="s">
         <v>39</v>
       </c>
@@ -49068,7 +49072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="693" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="5" t="s">
         <v>39</v>
       </c>
@@ -49118,7 +49122,7 @@
         <v>4280.6307919934707</v>
       </c>
     </row>
-    <row r="694" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="694" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="5" t="s">
         <v>39</v>
       </c>
@@ -49168,7 +49172,7 @@
         <v>3676.8766282647302</v>
       </c>
     </row>
-    <row r="695" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="695" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="5" t="s">
         <v>39</v>
       </c>
@@ -49218,7 +49222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:16">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A696" s="5" t="s">
         <v>39</v>
       </c>
@@ -49268,7 +49272,7 @@
         <v>493414.8081816319</v>
       </c>
     </row>
-    <row r="697" spans="1:16">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A697" s="5" t="s">
         <v>39</v>
       </c>
@@ -49318,7 +49322,7 @@
         <v>433724.45132589428</v>
       </c>
     </row>
-    <row r="698" spans="1:16">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A698" s="5" t="s">
         <v>39</v>
       </c>
@@ -49368,7 +49372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="699" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="5" t="s">
         <v>40</v>
       </c>
@@ -49418,7 +49422,7 @@
         <v>156383.81621581948</v>
       </c>
     </row>
-    <row r="700" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="700" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="5" t="s">
         <v>40</v>
       </c>
@@ -49468,7 +49472,7 @@
         <v>145990.05642470185</v>
       </c>
     </row>
-    <row r="701" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="701" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="5" t="s">
         <v>40</v>
       </c>
@@ -49518,7 +49522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="702" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="5" t="s">
         <v>40</v>
       </c>
@@ -49568,7 +49572,7 @@
         <v>349242.79765336978</v>
       </c>
     </row>
-    <row r="703" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="703" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="5" t="s">
         <v>40</v>
       </c>
@@ -49618,7 +49622,7 @@
         <v>394927.19588199054</v>
       </c>
     </row>
-    <row r="704" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="704" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="5" t="s">
         <v>40</v>
       </c>
@@ -49668,7 +49672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="705" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="5" t="s">
         <v>40</v>
       </c>
@@ -49718,7 +49722,7 @@
         <v>830.41999921901402</v>
       </c>
     </row>
-    <row r="706" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="706" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="5" t="s">
         <v>40</v>
       </c>
@@ -49768,7 +49772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="707" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="5" t="s">
         <v>40</v>
       </c>
@@ -49818,7 +49822,7 @@
         <v>74781.053207916237</v>
       </c>
     </row>
-    <row r="708" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="708" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="5" t="s">
         <v>40</v>
       </c>
@@ -49868,7 +49872,7 @@
         <v>34131.737850900005</v>
       </c>
     </row>
-    <row r="709" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="709" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="5" t="s">
         <v>40</v>
       </c>
@@ -49918,7 +49922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:16">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A710" s="5" t="s">
         <v>40</v>
       </c>
@@ -49968,7 +49972,7 @@
         <v>106583.9403833175</v>
       </c>
     </row>
-    <row r="711" spans="1:16">
+    <row r="711" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A711" s="5" t="s">
         <v>40</v>
       </c>
@@ -50018,7 +50022,7 @@
         <v>166864.47644804418</v>
       </c>
     </row>
-    <row r="712" spans="1:16">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A712" s="5" t="s">
         <v>40</v>
       </c>
@@ -50068,7 +50072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="713" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="5" t="s">
         <v>41</v>
       </c>
@@ -50118,7 +50122,7 @@
         <v>5981672.0219647773</v>
       </c>
     </row>
-    <row r="714" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="714" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="5" t="s">
         <v>41</v>
       </c>
@@ -50168,7 +50172,7 @@
         <v>5654267.0455827136</v>
       </c>
     </row>
-    <row r="715" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="715" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="5" t="s">
         <v>41</v>
       </c>
@@ -50218,7 +50222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="716" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="5" t="s">
         <v>41</v>
       </c>
@@ -50268,7 +50272,7 @@
         <v>909802.46158355603</v>
       </c>
     </row>
-    <row r="717" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="717" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="5" t="s">
         <v>41</v>
       </c>
@@ -50318,7 +50322,7 @@
         <v>1083528.032599374</v>
       </c>
     </row>
-    <row r="718" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="718" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="5" t="s">
         <v>41</v>
       </c>
@@ -50368,7 +50372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="719" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="5" t="s">
         <v>41</v>
       </c>
@@ -50418,7 +50422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="720" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="5" t="s">
         <v>41</v>
       </c>
@@ -50468,7 +50472,7 @@
         <v>1203364.70486699</v>
       </c>
     </row>
-    <row r="721" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="721" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="5" t="s">
         <v>41</v>
       </c>
@@ -50518,7 +50522,7 @@
         <v>1185730.8349583065</v>
       </c>
     </row>
-    <row r="722" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="722" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="5" t="s">
         <v>41</v>
       </c>
@@ -50568,7 +50572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:16">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A723" s="5" t="s">
         <v>41</v>
       </c>
@@ -50618,7 +50622,7 @@
         <v>333924.48036934872</v>
       </c>
     </row>
-    <row r="724" spans="1:16">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A724" s="5" t="s">
         <v>41</v>
       </c>
@@ -50668,7 +50672,7 @@
         <v>534748.39750754461</v>
       </c>
     </row>
-    <row r="725" spans="1:16">
+    <row r="725" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A725" s="5" t="s">
         <v>41</v>
       </c>
@@ -50718,7 +50722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="726" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="5" t="s">
         <v>42</v>
       </c>
@@ -50768,7 +50772,7 @@
         <v>5961486.8505555941</v>
       </c>
     </row>
-    <row r="727" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="727" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="5" t="s">
         <v>42</v>
       </c>
@@ -50818,7 +50822,7 @@
         <v>5895904.1703907754</v>
       </c>
     </row>
-    <row r="728" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="728" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="5" t="s">
         <v>42</v>
       </c>
@@ -50868,7 +50872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="729" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="5" t="s">
         <v>42</v>
       </c>
@@ -50918,7 +50922,7 @@
         <v>2916488.4700855715</v>
       </c>
     </row>
-    <row r="730" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="730" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="5" t="s">
         <v>42</v>
       </c>
@@ -50968,7 +50972,7 @@
         <v>2593018.5217699492</v>
       </c>
     </row>
-    <row r="731" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="731" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="5" t="s">
         <v>42</v>
       </c>
@@ -51018,7 +51022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="732" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="5" t="s">
         <v>42</v>
       </c>
@@ -51068,7 +51072,7 @@
         <v>1706029.6878524679</v>
       </c>
     </row>
-    <row r="733" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="733" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="5" t="s">
         <v>42</v>
       </c>
@@ -51118,7 +51122,7 @@
         <v>1123808.9028799452</v>
       </c>
     </row>
-    <row r="734" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="734" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="5" t="s">
         <v>42</v>
       </c>
@@ -51168,7 +51172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="735" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="5" t="s">
         <v>42</v>
       </c>
@@ -51218,7 +51222,7 @@
         <v>1355288.0834073557</v>
       </c>
     </row>
-    <row r="736" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="736" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="5" t="s">
         <v>42</v>
       </c>
@@ -51268,7 +51272,7 @@
         <v>1348082.4145084741</v>
       </c>
     </row>
-    <row r="737" spans="1:16" customFormat="1" ht="12.75" hidden="1">
+    <row r="737" spans="1:16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="5" t="s">
         <v>42</v>
       </c>
@@ -51318,7 +51322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:16">
+    <row r="738" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A738" s="5" t="s">
         <v>42</v>
       </c>
@@ -51368,7 +51372,7 @@
         <v>4253356.2320749164</v>
       </c>
     </row>
-    <row r="739" spans="1:16">
+    <row r="739" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A739" s="5" t="s">
         <v>42</v>
       </c>
@@ -51418,7 +51422,7 @@
         <v>3938047.294077544</v>
       </c>
     </row>
-    <row r="740" spans="1:16">
+    <row r="740" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A740" s="5" t="s">
         <v>42</v>
       </c>
@@ -51468,17 +51472,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:16">
+    <row r="743" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F743" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P740">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="UK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A10:P740"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
